--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13950" windowHeight="12645"/>
+    <workbookView windowWidth="13665" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$I$54</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>$HEAD</t>
   </si>
@@ -34,25 +34,613 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>CardColor</t>
+  </si>
+  <si>
+    <t>CardMagicalType</t>
+  </si>
+  <si>
+    <t>CardRarity</t>
+  </si>
+  <si>
+    <t>CardTarget</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>CardType</t>
-  </si>
-  <si>
-    <t>CardColor</t>
-  </si>
-  <si>
-    <t>CardRarity</t>
-  </si>
-  <si>
-    <t>CardTarget</t>
-  </si>
-  <si>
-    <t>Image_Path</t>
+    <t>Earthy</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>库洛牌</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>罕见</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>获得1层“地魔法”。</t>
+  </si>
+  <si>
+    <t>Watery</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>获得1层“水魔法”。</t>
+  </si>
+  <si>
+    <t>Firey</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>获得1层“火魔法”。</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>获得1层“风魔法”。</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>所有敌人</t>
+  </si>
+  <si>
+    <t>给与所有敌人？层“光元素”</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
+    <t>给与所有敌人？层“暗元素”</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>给与目标？层“缠绕”。目标身上“地元素”的层数大于？层时，消耗？层“地元素”，额外对其施加？次“勒脖”。给与目标？层“地元素”。</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>对所有敌人造成1点伤害。回复所有敌人身上“地元素”“水元素”层数和？倍的生命。给与目标？层“地元素”。</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>沙</t>
+  </si>
+  <si>
+    <t>给与目标？层“易伤”。目标身上“地元素”的层数大于？时，消耗？层“地元素”额外叠加？层“虚弱”。给与目标？层“地元素”。</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。</t>
+  </si>
+  <si>
+    <t>Bubbles</t>
+  </si>
+  <si>
+    <t>泡</t>
+  </si>
+  <si>
+    <t>清除目标身上的1个随机buff。目标身上“水元素”层数大于？时，消耗？层水元素，清除所有buff。</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>给与目标？层“水元素”？次。</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>冻</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“冰冻”。目标身上的“水元素”层数大于？时，造成额外？点伤害。给与目标？层“水元素”。</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害。目标身上“水元素”的层数大于？层时，消耗？层“水元素”给与目标？层“冰冻”。目标身上“风元素”的层数大于？层时，消耗？层“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>获得1层“云层”。</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>岚</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。造成目标身上“地元素”“水元素”“火元素”“风元素”层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>给与目标？层“光元素”。并将目标身上所有“暗元素”转化为“光元素”。</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>对目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>影</t>
+  </si>
+  <si>
+    <t>获得？点格挡。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
+  </si>
+  <si>
+    <t>Erase</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果目标身上有“爪牙”，则立即消灭。给与目标？层“暗元素”。</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>雾</t>
+  </si>
+  <si>
+    <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于？层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>矢</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>随机敌人</t>
+  </si>
+  <si>
+    <t>对随机敌人造成？点伤害。额外造成消耗的手牌数量和能量数量之和次数的伤害。</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>获得1层“放大”。如果自己身上存在“缩小”，则将其移除。</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>替</t>
+  </si>
+  <si>
+    <t>丢弃任意数量的手牌，并从卡组中选择相同数量的牌加入手牌。</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>驱</t>
+  </si>
+  <si>
+    <t>获得1层“冲刺”。</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>获得1层“格斗”。</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>浮</t>
+  </si>
+  <si>
+    <t>获得？层“漂浮”。</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>飞</t>
+  </si>
+  <si>
+    <t>获得？点格挡，获得？层飞行。</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>移除自身的所有debuff。</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>获得1层“缩小”。如果自己身上存在“放大”，则将其移除。</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>镜</t>
+  </si>
+  <si>
+    <t>选择1张手牌，添加1张相同的牌到手中</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>移</t>
+  </si>
+  <si>
+    <t>选择？张弃牌堆中的牌，放到抽排队顶部。</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，收到？倍力量加成。</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>防御。</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>击</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害？次。</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>静</t>
+  </si>
+  <si>
+    <t>获得？层缓冲，下回合无法使用攻击牌。</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>打击。</t>
+  </si>
+  <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>你所有使用的牌都会被额外打出一次。</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>创</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>获得1层“创造”。随机获得一件遗物，并将这张卡从卡组移除。</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>梦</t>
+  </si>
+  <si>
+    <t>增加？层“封印之杖”“星之杖”或“日月星杖”的计数。</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>从？张随机卡牌中选择一张加入手牌，其在本回合的耗能为0。</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>秤</t>
+  </si>
+  <si>
+    <t>选择一张手牌丢弃并抽一张牌，如果抽出的牌的类型和丢弃的手牌类型相同，则获得？费。</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，给与目标1层“锁定”。</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>轮</t>
+  </si>
+  <si>
+    <t>获得1层“圈环”。</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>恢复？点生命值。</t>
+  </si>
+  <si>
+    <t>Through</t>
+  </si>
+  <si>
+    <t>拔</t>
+  </si>
+  <si>
+    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害，打断所有敌人下回合的所有动作，无法被人工制品阻挡。</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>无法被打出，抽到次牌时额外抽一张牌。被消耗时获得？能量，并抽一张牌。</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>选择？张手牌消耗，消耗的牌每有一张“声”随机造成？点伤害。</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>获得？层“波动”。</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>给与自己2层“回溯”。</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>给与目标2层“睡眠”。</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>封</t>
+  </si>
+  <si>
+    <t>符咒</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，则在战斗结束后额外选一次牌。不消耗</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并造成额外伤害</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>转</t>
+  </si>
+  <si>
+    <t>选择一张手牌消耗，如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中。并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。保留。消耗。</t>
+  </si>
+  <si>
+    <t>BlankSpell</t>
+  </si>
+  <si>
+    <t>空道符</t>
+  </si>
+  <si>
+    <t>选择一张手牌，从4张“符咒”中选择一张加入手牌。</t>
+  </si>
+  <si>
+    <t>FengHua</t>
+  </si>
+  <si>
+    <t>风华</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“风元素”。</t>
+  </si>
+  <si>
+    <t>YanDi</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“火元素”。</t>
+  </si>
+  <si>
+    <t>LeiDi</t>
+  </si>
+  <si>
+    <t>雷帝</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“光元素”。</t>
+  </si>
+  <si>
+    <t>ShuiLong</t>
+  </si>
+  <si>
+    <t>水龙</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“水元素”。</t>
+  </si>
+  <si>
+    <t>小樱牌</t>
   </si>
 </sst>
 </file>
@@ -60,12 +648,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +662,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,16 +706,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +715,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,11 +743,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,31 +776,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,38 +805,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,19 +815,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,31 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,19 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +981,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -425,80 +1030,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,6 +1056,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,141 +1150,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,27 +1618,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:I2"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1067,8 +1685,2611 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E2:I2"/>
+  <autoFilter ref="D2:I54"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13665" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$I$54</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="239">
   <si>
     <t>$HEAD</t>
   </si>
@@ -463,9 +463,6 @@
     <t>幻</t>
   </si>
   <si>
-    <t>从？张随机卡牌中选择一张加入手牌，其在本回合的耗能为0。</t>
-  </si>
-  <si>
     <t>Libra</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
     <t>回</t>
   </si>
   <si>
-    <t>给与自己2层“回溯”。</t>
-  </si>
-  <si>
     <t>Sleep</t>
   </si>
   <si>
@@ -583,18 +577,12 @@
     <t>解</t>
   </si>
   <si>
-    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并造成额外伤害</t>
-  </si>
-  <si>
     <t>Turn</t>
   </si>
   <si>
     <t>转</t>
   </si>
   <si>
-    <t>选择一张手牌消耗，如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中。并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。保留。消耗。</t>
-  </si>
-  <si>
     <t>BlankSpell</t>
   </si>
   <si>
@@ -641,19 +629,153 @@
   </si>
   <si>
     <t>小樱牌</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”获胜后，且战斗结束时手牌中没有“心”时，获得该牌）给与自己1层“无”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一张手牌消耗。如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中，并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。保留。消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“地魔法”。从“树”“花”“沙”“迷”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“水魔法”。从“泡”“雨”“冻”“雪”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“火魔法”。从“雷”“拔”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成？点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标2层“睡眠”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？点格挡，获得？层金属化，？点多层护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，消耗区每有？张牌，额外造成1次伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标？层“缠绕”。目标身上有“地元素”时将其消耗，每有？层地元素对其施加？层“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“阳魔法”。给与所有敌人？层“光元素”，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“阴魔法”。给与所有敌人？层“暗元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复？点生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？点格挡，获得？层飞行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下一张牌都会被额外打出一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,151 +784,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,198 +817,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1032,255 +842,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,58 +867,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1612,20 +1142,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,7 +1171,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1737,7 +1266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1841,7 +1370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +1448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +1474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -1971,7 +1500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -1997,7 +1526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -2023,7 +1552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -2559,8 +2088,8 @@
       <c r="G36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>41</v>
+      <c r="H36" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>18</v>
@@ -2637,8 +2166,8 @@
       <c r="G39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>41</v>
+      <c r="H39" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>42</v>
@@ -2670,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -2732,8 +2261,8 @@
       <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>31</v>
+      <c r="E43" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
@@ -2741,22 +2270,22 @@
       <c r="G43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>41</v>
+      <c r="H43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
         <v>149</v>
-      </c>
-      <c r="C44" t="s">
-        <v>150</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>31</v>
@@ -2774,15 +2303,15 @@
         <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
         <v>152</v>
-      </c>
-      <c r="C45" t="s">
-        <v>153</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>40</v>
@@ -2800,15 +2329,15 @@
         <v>42</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
         <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -2826,15 +2355,15 @@
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
         <v>158</v>
-      </c>
-      <c r="C47" t="s">
-        <v>159</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>31</v>
@@ -2852,15 +2381,15 @@
         <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
         <v>161</v>
-      </c>
-      <c r="C48" t="s">
-        <v>162</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>40</v>
@@ -2878,15 +2407,15 @@
         <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
         <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>40</v>
@@ -2904,15 +2433,15 @@
         <v>42</v>
       </c>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
         <v>167</v>
-      </c>
-      <c r="C50" t="s">
-        <v>168</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>31</v>
@@ -2930,15 +2459,15 @@
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
         <v>170</v>
-      </c>
-      <c r="C51" t="s">
-        <v>171</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>40</v>
@@ -2952,19 +2481,19 @@
       <c r="H51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>18</v>
+      <c r="I51" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
         <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -2982,15 +2511,15 @@
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
-      </c>
-      <c r="C53" t="s">
-        <v>177</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>31</v>
@@ -3008,15 +2537,15 @@
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -3030,132 +2559,132 @@
       <c r="H54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>42</v>
+      <c r="I54" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" t="s">
-        <v>185</v>
-      </c>
+      <c r="E56"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
+        <v>181</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>32</v>
+      <c r="H57" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>14</v>
+        <v>185</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>32</v>
+      <c r="H58" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>31</v>
+        <v>187</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>41</v>
+      <c r="H59" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>141</v>
@@ -3164,122 +2693,128 @@
         <v>41</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>41</v>
+      <c r="H61" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J61" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>41</v>
+      <c r="H62" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>41</v>
+      <c r="H63" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>13</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" t="s">
-        <v>21</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>16</v>
@@ -3287,19 +2822,25 @@
       <c r="H66" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
@@ -3307,19 +2848,25 @@
       <c r="H67" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>16</v>
@@ -3327,19 +2874,25 @@
       <c r="H68" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="I68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
@@ -3347,19 +2900,25 @@
       <c r="H69" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
@@ -3367,639 +2926,831 @@
       <c r="H70" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="H71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="H72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="H73" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="H74" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
       <c r="B75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="H75" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
       <c r="B76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="H76" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="H77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="H78" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
       <c r="B79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="H79" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
       <c r="B80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="H80" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="H81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="H82" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="H83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
       <c r="B84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="H84" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="H85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
       <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="H87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
       <c r="B88" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="H88" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="H89" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
       <c r="B90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="H90" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="H91" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
       <c r="B92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="H92" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="H93" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
       <c r="B94" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>14</v>
+        <v>110</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="H94" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
       <c r="B95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="H95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
       <c r="B96" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
+      <c r="H96" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
+      <c r="H97" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="H98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>40</v>
+        <v>125</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="H99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>31</v>
+        <v>128</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
+      <c r="H100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
       <c r="B101" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>40</v>
+        <v>131</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
+      <c r="H101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
+        <v>134</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>88</v>
@@ -4007,279 +3758,363 @@
       <c r="H102" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="2:8">
+      <c r="I102" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
       <c r="B103" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="2:8">
+      <c r="I103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
       <c r="B104" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>31</v>
+        <v>140</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
+      <c r="H104" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
       <c r="B105" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
+      <c r="H105" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
       <c r="B106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>31</v>
+        <v>147</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
+      <c r="H106" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>40</v>
+        <v>149</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="H107" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
+      <c r="H108" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
       <c r="B109" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>31</v>
+        <v>155</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="H109" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>40</v>
+        <v>158</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
+      <c r="H110" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
       <c r="B111" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
+      <c r="H111" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>31</v>
+        <v>164</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
+      <c r="H112" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
       <c r="B113" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>171</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>40</v>
+        <v>167</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
+      <c r="H113" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
       <c r="B114" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>174</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>14</v>
+        <v>170</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
+      <c r="H114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
       <c r="B115" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>31</v>
+        <v>173</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
+      <c r="H115" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
       <c r="B116" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>141</v>
@@ -4287,10 +4122,94 @@
       <c r="H116" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="I116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D2:I54"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="278">
   <si>
     <t>$HEAD</t>
   </si>
@@ -148,626 +148,789 @@
     <t>敌人</t>
   </si>
   <si>
-    <t>给与目标？层“缠绕”。目标身上“地元素”的层数大于？层时，消耗？层“地元素”，额外对其施加？次“勒脖”。给与目标？层“地元素”。</t>
-  </si>
-  <si>
     <t>Flower</t>
   </si>
   <si>
     <t>花</t>
   </si>
   <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>沙</t>
+  </si>
+  <si>
+    <t>给与目标？层“易伤”。目标身上“地元素”的层数大于？时，消耗？层“地元素”额外叠加？层“虚弱”。给与目标？层“地元素”。</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。</t>
+  </si>
+  <si>
+    <t>Bubbles</t>
+  </si>
+  <si>
+    <t>泡</t>
+  </si>
+  <si>
+    <t>清除目标身上的1个随机buff。目标身上“水元素”层数大于？时，消耗？层水元素，清除所有buff。</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>给与目标？层“水元素”？次。</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>冻</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“冰冻”。目标身上的“水元素”层数大于？时，造成额外？点伤害。给与目标？层“水元素”。</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害。目标身上“水元素”的层数大于？层时，消耗？层“水元素”给与目标？层“冰冻”。目标身上“风元素”的层数大于？层时，消耗？层“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>获得1层“云层”。</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>岚</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>对目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>影</t>
+  </si>
+  <si>
+    <t>获得？点格挡。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
+  </si>
+  <si>
+    <t>Erase</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果目标身上有“爪牙”，则立即消灭。给与目标？层“暗元素”。</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>雾</t>
+  </si>
+  <si>
+    <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于？层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>矢</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>随机敌人</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>获得1层“放大”。如果自己身上存在“缩小”，则将其移除。</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>替</t>
+  </si>
+  <si>
+    <t>丢弃任意数量的手牌，并从卡组中选择相同数量的牌加入手牌。</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>驱</t>
+  </si>
+  <si>
+    <t>获得1层“冲刺”。</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>获得1层“格斗”。</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>浮</t>
+  </si>
+  <si>
+    <t>获得？层“漂浮”。</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>飞</t>
+  </si>
+  <si>
+    <t>获得？点格挡，获得？层飞行。</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>移除自身的所有debuff。</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>获得1层“缩小”。如果自己身上存在“放大”，则将其移除。</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>镜</t>
+  </si>
+  <si>
+    <t>选择1张手牌，添加1张相同的牌到手中</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>移</t>
+  </si>
+  <si>
+    <t>选择？张弃牌堆中的牌，放到抽排队顶部。</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，收到？倍力量加成。</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>防御。</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>击</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害？次。</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>静</t>
+  </si>
+  <si>
+    <t>获得？层缓冲，下回合无法使用攻击牌。</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>打击。</t>
+  </si>
+  <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>你所有使用的牌都会被额外打出一次。</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>创</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>梦</t>
+  </si>
+  <si>
+    <t>增加？层“封印之杖”“星之杖”或“日月星杖”的计数。</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>秤</t>
+  </si>
+  <si>
+    <t>选择一张手牌丢弃并抽一张牌，如果抽出的牌的类型和丢弃的手牌类型相同，则获得？费。</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，给与目标1层“锁定”。</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>轮</t>
+  </si>
+  <si>
+    <t>获得1层“圈环”。</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>恢复？点生命值。</t>
+  </si>
+  <si>
+    <t>Through</t>
+  </si>
+  <si>
+    <t>拔</t>
+  </si>
+  <si>
+    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害，打断所有敌人下回合的所有动作，无法被人工制品阻挡。</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>无法被打出，抽到次牌时额外抽一张牌。被消耗时获得？能量，并抽一张牌。</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>选择？张手牌消耗，消耗的牌每有一张“声”随机造成？点伤害。</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>给与目标2层“睡眠”。</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>封</t>
+  </si>
+  <si>
+    <t>符咒</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，则在战斗结束后额外选一次牌。不消耗</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>转</t>
+  </si>
+  <si>
+    <t>BlankSpell</t>
+  </si>
+  <si>
+    <t>空道符</t>
+  </si>
+  <si>
+    <t>选择一张手牌，从4张“符咒”中选择一张加入手牌。</t>
+  </si>
+  <si>
+    <t>FengHua</t>
+  </si>
+  <si>
+    <t>风华</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“风元素”。</t>
+  </si>
+  <si>
+    <t>YanDi</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“火元素”。</t>
+  </si>
+  <si>
+    <t>LeiDi</t>
+  </si>
+  <si>
+    <t>雷帝</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“光元素”。</t>
+  </si>
+  <si>
+    <t>ShuiLong</t>
+  </si>
+  <si>
+    <t>水龙</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“水元素”。</t>
+  </si>
+  <si>
+    <t>小樱牌</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”获胜后，且战斗结束时手牌中没有“心”时，获得该牌）给与自己1层“无”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一张手牌消耗。如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中，并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。保留。消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“地魔法”。从“树”“花”“沙”“迷”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“水魔法”。从“泡”“雨”“冻”“雪”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成？点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，消耗区每有？张牌，额外造成1次伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“阳魔法”。给与所有敌人？层“光元素”，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“阴魔法”。给与所有敌人？层“暗元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下一张牌都会被额外打出一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“云层”。从“雨”“雪”“岚”“雷”四张牌中选择一张加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择任意手牌消耗、任意数量能量，对随机敌人造成？点伤害。额外造成消耗的手牌数量和能量数量之和次数的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1张库洛牌或小樱牌添加到手中，这回合的消耗为0，加入的牌打出后被消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“平衡”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被打出，抽到次牌时额外抽一张牌。被消耗时获得？能量、抽一张牌、并获得“知世的心”，战斗结束后失去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张手牌消耗，回复消耗手牌数量？倍的生命值。消耗的牌每有一张“声”对所有敌人造成？点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“双翼”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。造成目标身上“地元素”“水元素”“火元素”“风元素”层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。回合结束时，格挡值不会消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃？张手牌，并从卡组中选择相同数量的牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？层无实体。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，给与目标？层“暗元素”。如果目标不是boss，则立即消灭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有手牌中、抽排堆、弃牌堆的“库洛牌”，并将相对应的“小樱牌”加入到抽排堆，抽取原有手牌数量的牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃离战斗。抽到这张牌时，额外抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“格斗EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“冲刺EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除目标身上的所有buff。给与目标？层“水元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害？次。每次未被格挡的伤害给与目标？层“火元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对所有敌人造成1点伤害。回复所有敌人身上“地元素”“水元素”层数和？倍的生命。给与目标？层“地元素”。</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>沙</t>
-  </si>
-  <si>
-    <t>给与目标？层“易伤”。目标身上“地元素”的层数大于？时，消耗？层“地元素”额外叠加？层“虚弱”。给与目标？层“地元素”。</t>
-  </si>
-  <si>
-    <t>Maze</t>
-  </si>
-  <si>
-    <t>迷</t>
-  </si>
-  <si>
-    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。</t>
-  </si>
-  <si>
-    <t>Bubbles</t>
-  </si>
-  <si>
-    <t>泡</t>
-  </si>
-  <si>
-    <t>清除目标身上的1个随机buff。目标身上“水元素”层数大于？时，消耗？层水元素，清除所有buff。</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>雨</t>
-  </si>
-  <si>
-    <t>给与目标？层“水元素”？次。</t>
-  </si>
-  <si>
-    <t>Freeze</t>
-  </si>
-  <si>
-    <t>冻</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“冰冻”。目标身上的“水元素”层数大于？时，造成额外？点伤害。给与目标？层“水元素”。</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>雪</t>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害。目标身上“水元素”的层数大于？层时，消耗？层“水元素”给与目标？层“冰冻”。目标身上“风元素”的层数大于？层时，消耗？层“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>获得1层“云层”。</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>岚</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。造成目标身上“地元素”“水元素”“火元素”“风元素”层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
-  </si>
-  <si>
-    <t>Glow</t>
-  </si>
-  <si>
-    <t>灯</t>
-  </si>
-  <si>
-    <t>给与目标？层“光元素”。并将目标身上所有“暗元素”转化为“光元素”。</t>
-  </si>
-  <si>
-    <t>Thunder</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>对目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
-  </si>
-  <si>
-    <t>Shadow</t>
-  </si>
-  <si>
-    <t>影</t>
-  </si>
-  <si>
-    <t>获得？点格挡。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
-  </si>
-  <si>
-    <t>Erase</t>
-  </si>
-  <si>
-    <t>消</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，如果目标身上有“爪牙”，则立即消灭。给与目标？层“暗元素”。</t>
-  </si>
-  <si>
-    <t>Mist</t>
-  </si>
-  <si>
-    <t>雾</t>
-  </si>
-  <si>
-    <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于？层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>矢</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>随机敌人</t>
-  </si>
-  <si>
-    <t>对随机敌人造成？点伤害。额外造成消耗的手牌数量和能量数量之和次数的伤害。</t>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>获得1层“放大”。如果自己身上存在“缩小”，则将其移除。</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>替</t>
-  </si>
-  <si>
-    <t>丢弃任意数量的手牌，并从卡组中选择相同数量的牌加入手牌。</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>驱</t>
-  </si>
-  <si>
-    <t>获得1层“冲刺”。</t>
-  </si>
-  <si>
-    <t>Fight</t>
-  </si>
-  <si>
-    <t>斗</t>
-  </si>
-  <si>
-    <t>获得1层“格斗”。</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>浮</t>
-  </si>
-  <si>
-    <t>获得？层“漂浮”。</t>
-  </si>
-  <si>
-    <t>Fly</t>
-  </si>
-  <si>
-    <t>飞</t>
-  </si>
-  <si>
-    <t>获得？点格挡，获得？层飞行。</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>跳</t>
-  </si>
-  <si>
-    <t>移除自身的所有debuff。</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>获得1层“缩小”。如果自己身上存在“放大”，则将其移除。</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>镜</t>
-  </si>
-  <si>
-    <t>选择1张手牌，添加1张相同的牌到手中</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>移</t>
-  </si>
-  <si>
-    <t>选择？张弃牌堆中的牌，放到抽排队顶部。</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>力</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，收到？倍力量加成。</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>盾</t>
-  </si>
-  <si>
-    <t>防御。</t>
-  </si>
-  <si>
-    <t>Shot</t>
-  </si>
-  <si>
-    <t>击</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害？次。</t>
-  </si>
-  <si>
-    <t>Silent</t>
-  </si>
-  <si>
-    <t>静</t>
-  </si>
-  <si>
-    <t>获得？层缓冲，下回合无法使用攻击牌。</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>剑</t>
-  </si>
-  <si>
-    <t>打击。</t>
-  </si>
-  <si>
-    <t>Twin</t>
-  </si>
-  <si>
-    <t>双</t>
-  </si>
-  <si>
-    <t>你所有使用的牌都会被额外打出一次。</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>创</t>
-  </si>
-  <si>
-    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成1点伤害。回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。“地元素”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合减少目标？点力量。目标身上有“地元素”时将其消耗，每有？层地元素对其施加层数？倍的“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合减少目标？点力量。目标身上“地元素”的层数大于？层时，消耗？层“地元素”，额外对其施加？次“勒脖”。给与目标？层“地元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标？层“易伤”和“虚弱”。给与目标1层“缓慢”。给与目标？层“地元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害。给与目标？层“冰冻”。造成目标身上“水元素”层数？倍的额外体力流失。给与目标？层“水元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择任意手牌消耗、任意数量能量，对随机敌人造成消耗的手牌数量+1和能量数量+1的乘积次数的？点伤害。每次伤害都给与目标1层“火元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层“火魔法”。从“雷”“矢”“击”“拔”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标？层“水元素”和“易伤”？次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”，造成层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除目标身上所有“暗元素”，移除的“暗元素”每有？层，给与1层“光元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标？层“光元素”。移除目标身上所有“暗元素”，移除的“暗元素”每有？层，给与1层“光元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除所有敌人的所有格挡值，移除目标所有“多层护甲”“金属化”“荆棘”“无实体”“缓冲”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“放大EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“缩小EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“漂浮EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换抽排堆和弃牌堆的牌。抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？点格挡，获得？层金属化，？点多层护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，受到？倍力量加成。当目标的力量层数大于自己时，获得？层力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得？层缓冲，结束当前回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得1层“创造”。随机获得一件遗物，并将这张卡从卡组移除。</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>梦</t>
-  </si>
-  <si>
-    <t>增加？层“封印之杖”“星之杖”或“日月星杖”的计数。</t>
-  </si>
-  <si>
-    <t>Illusion</t>
-  </si>
-  <si>
-    <t>幻</t>
-  </si>
-  <si>
-    <t>Libra</t>
-  </si>
-  <si>
-    <t>秤</t>
-  </si>
-  <si>
-    <t>选择一张手牌丢弃并抽一张牌，如果抽出的牌的类型和丢弃的手牌类型相同，则获得？费。</t>
-  </si>
-  <si>
-    <t>Lock</t>
-  </si>
-  <si>
-    <t>锁</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，给与目标1层“锁定”。</t>
-  </si>
-  <si>
-    <t>Loop</t>
-  </si>
-  <si>
-    <t>轮</t>
-  </si>
-  <si>
-    <t>获得1层“圈环”。</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>甘</t>
-  </si>
-  <si>
-    <t>恢复？点生命值。</t>
-  </si>
-  <si>
-    <t>Through</t>
-  </si>
-  <si>
-    <t>拔</t>
-  </si>
-  <si>
-    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>时</t>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害，打断所有敌人下回合的所有动作，无法被人工制品阻挡。</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>声</t>
-  </si>
-  <si>
-    <t>无法被打出，抽到次牌时额外抽一张牌。被消耗时获得？能量，并抽一张牌。</t>
-  </si>
-  <si>
-    <t>Song</t>
-  </si>
-  <si>
-    <t>歌</t>
-  </si>
-  <si>
-    <t>选择？张手牌消耗，消耗的牌每有一张“声”随机造成？点伤害。</t>
-  </si>
-  <si>
-    <t>Wave</t>
-  </si>
-  <si>
-    <t>波</t>
-  </si>
-  <si>
-    <t>获得？层“波动”。</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>回</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>睡</t>
-  </si>
-  <si>
-    <t>给与目标2层“睡眠”。</t>
-  </si>
-  <si>
-    <t>Seal</t>
-  </si>
-  <si>
-    <t>封</t>
-  </si>
-  <si>
-    <t>符咒</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，则在战斗结束后额外选一次牌。不消耗</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>解</t>
-  </si>
-  <si>
-    <t>Turn</t>
-  </si>
-  <si>
-    <t>转</t>
-  </si>
-  <si>
-    <t>BlankSpell</t>
-  </si>
-  <si>
-    <t>空道符</t>
-  </si>
-  <si>
-    <t>选择一张手牌，从4张“符咒”中选择一张加入手牌。</t>
-  </si>
-  <si>
-    <t>FengHua</t>
-  </si>
-  <si>
-    <t>风华</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“风元素”。</t>
-  </si>
-  <si>
-    <t>YanDi</t>
-  </si>
-  <si>
-    <t>炎帝</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“火元素”。</t>
-  </si>
-  <si>
-    <t>LeiDi</t>
-  </si>
-  <si>
-    <t>雷帝</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“光元素”。</t>
-  </si>
-  <si>
-    <t>ShuiLong</t>
-  </si>
-  <si>
-    <t>水龙</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“水元素”。</t>
-  </si>
-  <si>
-    <t>小樱牌</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（特殊战斗事件“无”获胜后，且战斗结束时手牌中没有“心”时，获得该牌）给与自己1层“无”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择一张手牌消耗。如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中，并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。保留。消耗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层“地魔法”。从“树”“花”“沙”“迷”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层“水魔法”。从“泡”“雨”“冻”“雪”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层“火魔法”。从“雷”“拔”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成？点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与目标2层“睡眠”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得？点格挡，获得？层金属化，？点多层护甲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，消耗区每有？张牌，额外造成1次伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与目标？层“缠绕”。目标身上有“地元素”时将其消耗，每有？层地元素对其施加？层“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层“阳魔法”。给与所有敌人？层“光元素”，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层“阴魔法”。给与所有敌人？层“暗元素”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复？点生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得？点格挡，获得？层飞行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的下一张牌都会被额外打出一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“创造”。并将这张卡从卡组移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害，给与目标？层“锁定”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机打出1张攻击牌，消耗区每有？张牌，额外随机打出1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“波动EX”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层“波动”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标99层“睡眠”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,10 +1314,10 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,15 +1556,15 @@
         <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
@@ -1419,15 +1582,15 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
@@ -1445,15 +1608,15 @@
         <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -1471,15 +1634,15 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
@@ -1497,15 +1660,15 @@
         <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>40</v>
@@ -1523,15 +1686,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>40</v>
@@ -1549,15 +1712,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>40</v>
@@ -1575,15 +1738,15 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -1601,15 +1764,15 @@
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>40</v>
@@ -1627,15 +1790,15 @@
         <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>31</v>
@@ -1653,15 +1816,15 @@
         <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>40</v>
@@ -1679,15 +1842,15 @@
         <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>31</v>
@@ -1705,15 +1868,15 @@
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -1731,15 +1894,15 @@
         <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>31</v>
@@ -1757,15 +1920,15 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>40</v>
@@ -1774,24 +1937,24 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -1800,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>17</v>
@@ -1809,15 +1972,15 @@
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>31</v>
@@ -1826,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>41</v>
@@ -1835,15 +1998,15 @@
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -1852,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>32</v>
@@ -1861,15 +2024,15 @@
         <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -1878,7 +2041,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>17</v>
@@ -1887,15 +2050,15 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -1904,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1913,15 +2076,15 @@
         <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -1930,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>17</v>
@@ -1939,15 +2102,15 @@
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>31</v>
@@ -1956,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>17</v>
@@ -1965,15 +2128,15 @@
         <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -1982,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>17</v>
@@ -1991,15 +2154,15 @@
         <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>31</v>
@@ -2008,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>41</v>
@@ -2017,15 +2180,15 @@
         <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>31</v>
@@ -2034,7 +2197,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>17</v>
@@ -2043,15 +2206,15 @@
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>40</v>
@@ -2060,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>17</v>
@@ -2069,15 +2232,15 @@
         <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
@@ -2086,24 +2249,24 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>40</v>
@@ -2112,7 +2275,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>41</v>
@@ -2121,15 +2284,15 @@
         <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>31</v>
@@ -2138,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>41</v>
@@ -2147,15 +2310,15 @@
         <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>40</v>
@@ -2164,24 +2327,24 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -2190,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>32</v>
@@ -2199,15 +2362,15 @@
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -2216,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>32</v>
@@ -2225,15 +2388,15 @@
         <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>31</v>
@@ -2242,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>32</v>
@@ -2251,15 +2414,15 @@
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>40</v>
@@ -2268,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>17</v>
@@ -2277,15 +2440,15 @@
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>31</v>
@@ -2294,7 +2457,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>41</v>
@@ -2303,15 +2466,15 @@
         <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>40</v>
@@ -2320,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>17</v>
@@ -2329,15 +2492,15 @@
         <v>42</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -2346,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>32</v>
@@ -2355,15 +2518,15 @@
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>31</v>
@@ -2372,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>41</v>
@@ -2381,15 +2544,15 @@
         <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>40</v>
@@ -2398,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>32</v>
@@ -2407,15 +2570,15 @@
         <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>40</v>
@@ -2424,7 +2587,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>32</v>
@@ -2433,15 +2596,15 @@
         <v>42</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>31</v>
@@ -2450,7 +2613,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>41</v>
@@ -2459,15 +2622,15 @@
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>40</v>
@@ -2476,24 +2639,24 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -2502,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>17</v>
@@ -2511,15 +2674,15 @@
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>31</v>
@@ -2528,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>17</v>
@@ -2537,15 +2700,15 @@
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -2554,24 +2717,24 @@
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -2580,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>32</v>
@@ -2589,7 +2752,7 @@
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -2597,97 +2760,97 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>41</v>
@@ -2696,111 +2859,111 @@
         <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J64" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -2814,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>16</v>
@@ -2826,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -2840,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
@@ -2852,7 +3015,7 @@
         <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -2866,7 +3029,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>16</v>
@@ -2875,10 +3038,10 @@
         <v>32</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J68" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -2892,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
@@ -2904,7 +3067,7 @@
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -2918,7 +3081,7 @@
         <v>31</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
@@ -2930,7 +3093,7 @@
         <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -2944,7 +3107,7 @@
         <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
@@ -2956,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="2:10">
@@ -2970,7 +3133,7 @@
         <v>40</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>16</v>
@@ -2978,704 +3141,704 @@
       <c r="H72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>42</v>
+      <c r="I72" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J72" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
         <v>44</v>
-      </c>
-      <c r="C73" t="s">
-        <v>45</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>221</v>
+      <c r="H73" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>221</v>
+      <c r="H74" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>221</v>
+      <c r="H75" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>42</v>
+      <c r="H76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>221</v>
+      <c r="H77" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J77" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>42</v>
+      <c r="H78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J78" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>221</v>
+      <c r="H79" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>221</v>
+      <c r="H80" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>42</v>
+      <c r="H81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J81" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>42</v>
+      <c r="H82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J82" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>221</v>
+      <c r="H83" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J83" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="7" t="s">
-        <v>221</v>
+      <c r="H84" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>221</v>
+      <c r="H85" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J85" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>221</v>
+      <c r="H86" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J89" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J97" t="s">
-        <v>120</v>
+      <c r="J97" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J98" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>32</v>
@@ -3684,440 +3847,440 @@
         <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J100" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>132</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J102" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I105" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J105" t="s">
         <v>238</v>
-      </c>
-      <c r="J105" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J106" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J108" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J111" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J112" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J114" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>32</v>
@@ -4126,85 +4289,85 @@
         <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J117" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="H118" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I118" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J118" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22035" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$J$117</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="342">
   <si>
     <t>$HEAD</t>
   </si>
@@ -682,9 +683,6 @@
     <t>符咒</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，则在战斗结束后额外选一次牌。</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
@@ -787,9 +785,6 @@
     <t>唯一，消耗</t>
   </si>
   <si>
-    <t>回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。“地元素”</t>
-  </si>
-  <si>
     <t>对目标造成？点伤害。给与目标？层“易伤”和“虚弱”。给与目标1层“缓慢”。给与目标？层“地元素”。</t>
   </si>
   <si>
@@ -805,9 +800,6 @@
     <t>对目标造成？点伤害。给与目标？层“冰冻”。造成目标身上“水元素”层数？倍的额外体力流失。给与目标？层“水元素”。</t>
   </si>
   <si>
-    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
-  </si>
-  <si>
     <t>获得1层“云层”。从“雨”“雪”“岚”“雷”四张牌中选择一张加入手牌。</t>
   </si>
   <si>
@@ -877,83 +869,240 @@
     <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
   </si>
   <si>
+    <t>你所有使用的牌都会被额外打出一次。</t>
+  </si>
+  <si>
+    <t>获得1层“创造”。随机获得一件遗物，并将这张卡从卡组移除。</t>
+  </si>
+  <si>
+    <t>消耗所有手牌中、抽排堆、弃牌堆的“库洛牌”，并将相对应的“小樱牌”加入到抽排堆，抽取原有手牌数量的牌。</t>
+  </si>
+  <si>
+    <t>随机打出X张攻击牌，消耗区每有？张牌，额外随机打出1张牌。</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，给与目标？层“锁定”。</t>
+  </si>
+  <si>
+    <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
+  </si>
+  <si>
+    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
+  </si>
+  <si>
+    <t>无法被打出，抽到次牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
+  </si>
+  <si>
+    <t>选择任意手牌消耗，对随机敌人造成？点伤害消耗牌数的2倍次，消耗的牌每有1张“声”抽1张牌。</t>
+  </si>
+  <si>
+    <t>获得1层“波动EX”。</t>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
+  </si>
+  <si>
+    <t>给与目标99层“睡眠”。</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>希望</t>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
+  </si>
+  <si>
+    <t>封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，获得1层“封印”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地元素，易伤，虚弱，缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素，易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素，风元素，冰冻，虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属化，多层护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层护甲</t>
+  </si>
+  <si>
+    <t>无实体，多层护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>双生EX</t>
-  </si>
-  <si>
-    <t>你所有使用的牌都会被额外打出一次。</t>
-  </si>
-  <si>
-    <t>获得1层“创造”。随机获得一件遗物，并将这张卡从卡组移除。</t>
-  </si>
-  <si>
-    <t>消耗所有手牌中、抽排堆、弃牌堆的“库洛牌”，并将相对应的“小樱牌”加入到抽排堆，抽取原有手牌数量的牌。</t>
-  </si>
-  <si>
-    <t>随机打出X张攻击牌，消耗区每有？张牌，额外随机打出1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得1层“平衡”。</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，给与目标？层“锁定”。</t>
-  </si>
-  <si>
-    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
-  </si>
-  <si>
-    <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
-  </si>
-  <si>
-    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
-  </si>
-  <si>
-    <t>无法被打出，抽到次牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
-  </si>
-  <si>
-    <t>选择任意手牌消耗，对随机敌人造成？点伤害消耗牌数的2倍次，消耗的牌每有1张“声”抽1张牌。</t>
-  </si>
-  <si>
-    <t>获得1层“波动EX”。</t>
-  </si>
-  <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
-  </si>
-  <si>
-    <t>给与目标99层“睡眠”。</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>心</t>
-  </si>
-  <si>
-    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>希望</t>
-  </si>
-  <si>
-    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>圈环E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御，回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御，进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻，控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,151 +1111,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,7 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,13 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,182 +1186,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1350,255 +1195,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,62 +1244,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF99CC"/>
+      <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1959,20 +1521,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1985,13 +1546,14 @@
     <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2036,11 +1598,14 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2068,11 +1633,12 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -2100,11 +1666,12 @@
       <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -2132,11 +1699,12 @@
       <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -2164,11 +1732,12 @@
       <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -2196,11 +1765,12 @@
       <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -2228,11 +1798,12 @@
       <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -2260,11 +1831,14 @@
       <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2295,11 +1869,14 @@
       <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="M10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -2327,11 +1904,14 @@
       <c r="K11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>62</v>
       </c>
@@ -2356,11 +1936,14 @@
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -2385,11 +1968,14 @@
       <c r="I13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>68</v>
       </c>
@@ -2417,11 +2003,11 @@
       <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -2452,11 +2038,14 @@
       <c r="K15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:13">
       <c r="B16" t="s">
         <v>76</v>
       </c>
@@ -2484,11 +2073,14 @@
       <c r="K16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>80</v>
       </c>
@@ -2519,11 +2111,11 @@
       <c r="K17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>84</v>
       </c>
@@ -2551,11 +2143,14 @@
       <c r="K18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2583,11 +2178,11 @@
       <c r="K19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -2615,11 +2210,14 @@
       <c r="K20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -2644,11 +2242,17 @@
       <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="M21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -2676,11 +2280,14 @@
       <c r="K22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>101</v>
       </c>
@@ -2708,11 +2315,14 @@
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="M23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>104</v>
       </c>
@@ -2737,11 +2347,14 @@
       <c r="I24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>109</v>
       </c>
@@ -2769,11 +2382,14 @@
       <c r="K25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>113</v>
       </c>
@@ -2798,11 +2414,14 @@
       <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>116</v>
       </c>
@@ -2830,11 +2449,14 @@
       <c r="K27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>120</v>
       </c>
@@ -2862,11 +2484,14 @@
       <c r="K28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>124</v>
       </c>
@@ -2894,11 +2519,14 @@
       <c r="K29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>128</v>
       </c>
@@ -2926,11 +2554,14 @@
       <c r="K30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -2958,11 +2589,14 @@
       <c r="J31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>135</v>
       </c>
@@ -2990,11 +2624,14 @@
       <c r="K32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>139</v>
       </c>
@@ -3022,11 +2659,14 @@
       <c r="J33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>142</v>
       </c>
@@ -3051,11 +2691,11 @@
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>145</v>
       </c>
@@ -3080,11 +2720,11 @@
       <c r="I35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>148</v>
       </c>
@@ -3109,11 +2749,11 @@
       <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>152</v>
       </c>
@@ -3138,11 +2778,11 @@
       <c r="I37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>155</v>
       </c>
@@ -3167,15 +2807,14 @@
       <c r="I38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>159</v>
       </c>
@@ -3200,11 +2839,11 @@
       <c r="I39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>162</v>
       </c>
@@ -3229,15 +2868,14 @@
       <c r="I40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>166</v>
       </c>
@@ -3265,11 +2903,11 @@
       <c r="K41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>171</v>
       </c>
@@ -3297,11 +2935,11 @@
       <c r="J42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>174</v>
       </c>
@@ -3326,11 +2964,11 @@
       <c r="I43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>177</v>
       </c>
@@ -3355,11 +2993,11 @@
       <c r="I44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>180</v>
       </c>
@@ -3387,11 +3025,11 @@
       <c r="K45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>184</v>
       </c>
@@ -3419,11 +3057,11 @@
       <c r="K46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>188</v>
       </c>
@@ -3448,11 +3086,11 @@
       <c r="I47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>191</v>
       </c>
@@ -3477,11 +3115,11 @@
       <c r="I48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>194</v>
       </c>
@@ -3509,11 +3147,11 @@
       <c r="J49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>197</v>
       </c>
@@ -3538,11 +3176,11 @@
       <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>200</v>
       </c>
@@ -3569,11 +3207,12 @@
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-      <c r="L51" t="s">
+      <c r="L51" s="12"/>
+      <c r="M51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>204</v>
       </c>
@@ -3601,11 +3240,11 @@
       <c r="K52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>208</v>
       </c>
@@ -3633,11 +3272,11 @@
       <c r="J53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>211</v>
       </c>
@@ -3668,11 +3307,12 @@
       <c r="K54" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="12"/>
+      <c r="M54" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>215</v>
       </c>
@@ -3700,11 +3340,11 @@
       <c r="K55" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
         <v>218</v>
       </c>
@@ -3732,16 +3372,20 @@
       <c r="J56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L56" t="s">
+      <c r="K56" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" t="s">
+      <c r="C57" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -3761,16 +3405,16 @@
       <c r="I57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" t="s">
+      <c r="C58" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -3785,24 +3429,24 @@
         <v>168</v>
       </c>
       <c r="H58" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="M58" t="s">
         <v>228</v>
       </c>
-      <c r="L58" t="s">
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" t="s">
+      <c r="C59" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -3825,16 +3469,16 @@
       <c r="J59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" t="s">
+      <c r="C60" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -3849,24 +3493,24 @@
         <v>168</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M60" t="s">
         <v>235</v>
       </c>
-      <c r="L60" t="s">
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" t="s">
+      <c r="C61" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -3881,24 +3525,24 @@
         <v>168</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L61" t="s">
+        <v>234</v>
+      </c>
+      <c r="M61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" t="s">
+      <c r="C62" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -3913,24 +3557,24 @@
         <v>168</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L62" t="s">
+        <v>234</v>
+      </c>
+      <c r="M62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" t="s">
+      <c r="C63" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -3945,19 +3589,19 @@
         <v>168</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
+        <v>234</v>
+      </c>
+      <c r="M63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>14</v>
       </c>
@@ -3971,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>18</v>
@@ -3983,13 +3627,16 @@
         <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
         <v>247</v>
       </c>
-      <c r="L64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
+    </row>
+    <row r="65" spans="1:13">
       <c r="B65" t="s">
         <v>23</v>
       </c>
@@ -4003,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>18</v>
@@ -4015,13 +3662,16 @@
         <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L65" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="B66" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>18</v>
@@ -4047,13 +3697,16 @@
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="B67" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>18</v>
@@ -4079,13 +3732,16 @@
         <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="B68" t="s">
         <v>35</v>
       </c>
@@ -4099,7 +3755,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>18</v>
@@ -4111,13 +3767,17 @@
         <v>39</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L68" s="12"/>
+      <c r="M68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="B69" t="s">
         <v>42</v>
       </c>
@@ -4131,7 +3791,7 @@
         <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
@@ -4143,13 +3803,17 @@
         <v>39</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L69" s="12"/>
+      <c r="M69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>46</v>
@@ -4164,7 +3828,7 @@
         <v>48</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>18</v>
@@ -4176,13 +3840,16 @@
         <v>50</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>53</v>
@@ -4197,7 +3864,7 @@
         <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>18</v>
@@ -4209,13 +3876,16 @@
         <v>39</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="B72" t="s">
         <v>58</v>
       </c>
@@ -4229,7 +3899,7 @@
         <v>48</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>18</v>
@@ -4241,13 +3911,17 @@
         <v>50</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="L72" s="12"/>
+      <c r="M72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="B73" t="s">
         <v>62</v>
       </c>
@@ -4261,7 +3935,7 @@
         <v>37</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>18</v>
@@ -4273,13 +3947,17 @@
         <v>20</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L73" s="12"/>
+      <c r="M73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -4293,7 +3971,7 @@
         <v>37</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>18</v>
@@ -4305,13 +3983,13 @@
         <v>50</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L74" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>68</v>
@@ -4326,7 +4004,7 @@
         <v>37</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>18</v>
@@ -4338,13 +4016,17 @@
         <v>50</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L75" s="12"/>
+      <c r="M75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>72</v>
@@ -4359,7 +4041,7 @@
         <v>48</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>18</v>
@@ -4371,13 +4053,16 @@
         <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L76" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>76</v>
@@ -4392,7 +4077,7 @@
         <v>48</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>18</v>
@@ -4404,13 +4089,17 @@
         <v>39</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L77" s="12"/>
+      <c r="M77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="B78" t="s">
         <v>80</v>
       </c>
@@ -4424,7 +4113,7 @@
         <v>37</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>18</v>
@@ -4436,13 +4125,16 @@
         <v>20</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>254</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>84</v>
@@ -4457,7 +4149,7 @@
         <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>18</v>
@@ -4469,13 +4161,16 @@
         <v>50</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L79" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="B80" t="s">
         <v>88</v>
       </c>
@@ -4489,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>18</v>
@@ -4501,13 +4196,16 @@
         <v>50</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>91</v>
@@ -4522,7 +4220,7 @@
         <v>48</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>18</v>
@@ -4534,13 +4232,16 @@
         <v>50</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="B82" t="s">
         <v>95</v>
       </c>
@@ -4554,7 +4255,7 @@
         <v>37</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>18</v>
@@ -4566,13 +4267,17 @@
         <v>20</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L82" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L82" s="12"/>
+      <c r="M82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>98</v>
@@ -4587,7 +4292,7 @@
         <v>48</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>18</v>
@@ -4599,13 +4304,16 @@
         <v>50</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="B84" t="s">
         <v>101</v>
       </c>
@@ -4619,7 +4327,7 @@
         <v>37</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>18</v>
@@ -4631,13 +4339,13 @@
         <v>39</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L84" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>104</v>
@@ -4652,7 +4360,7 @@
         <v>48</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>106</v>
@@ -4664,13 +4372,17 @@
         <v>107</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L85" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L85" s="12"/>
+      <c r="M85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="B86" t="s">
         <v>109</v>
       </c>
@@ -4684,7 +4396,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>106</v>
@@ -4696,13 +4408,17 @@
         <v>20</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L86" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L86" s="12"/>
+      <c r="M86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="B87" t="s">
         <v>113</v>
       </c>
@@ -4716,7 +4432,7 @@
         <v>37</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>106</v>
@@ -4728,13 +4444,13 @@
         <v>20</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L87" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="M87" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="B88" t="s">
         <v>116</v>
       </c>
@@ -4748,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>106</v>
@@ -4760,13 +4476,17 @@
         <v>20</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L88" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L88" s="12"/>
+      <c r="M88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="B89" t="s">
         <v>120</v>
       </c>
@@ -4780,7 +4500,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>106</v>
@@ -4792,13 +4512,17 @@
         <v>20</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L89" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L89" s="12"/>
+      <c r="M89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="B90" t="s">
         <v>124</v>
       </c>
@@ -4812,7 +4536,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>106</v>
@@ -4824,13 +4548,17 @@
         <v>20</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L90" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L90" s="12"/>
+      <c r="M90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="B91" t="s">
         <v>128</v>
       </c>
@@ -4844,7 +4572,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>106</v>
@@ -4856,13 +4584,17 @@
         <v>20</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L91" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="B92" t="s">
         <v>132</v>
       </c>
@@ -4876,7 +4608,7 @@
         <v>37</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>106</v>
@@ -4888,13 +4620,13 @@
         <v>20</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L92" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="M92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="B93" t="s">
         <v>135</v>
       </c>
@@ -4908,7 +4640,7 @@
         <v>16</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>106</v>
@@ -4920,13 +4652,17 @@
         <v>20</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L93" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L93" s="12"/>
+      <c r="M93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="B94" t="s">
         <v>139</v>
       </c>
@@ -4940,7 +4676,7 @@
         <v>37</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>106</v>
@@ -4952,13 +4688,13 @@
         <v>20</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L94" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="M94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="B95" t="s">
         <v>142</v>
       </c>
@@ -4972,7 +4708,7 @@
         <v>37</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>106</v>
@@ -4984,13 +4720,13 @@
         <v>20</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
         <v>145</v>
@@ -5005,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>106</v>
@@ -5017,13 +4753,17 @@
         <v>50</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L96" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L96" s="12"/>
+      <c r="M96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="B97" t="s">
         <v>148</v>
       </c>
@@ -5037,7 +4777,7 @@
         <v>37</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>106</v>
@@ -5049,13 +4789,17 @@
         <v>20</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L97" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L97" s="12"/>
+      <c r="M97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
         <v>152</v>
@@ -5070,7 +4814,7 @@
         <v>48</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>106</v>
@@ -5082,13 +4826,13 @@
         <v>50</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L98" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="M98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="B99" t="s">
         <v>155</v>
       </c>
@@ -5102,7 +4846,7 @@
         <v>37</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>106</v>
@@ -5114,13 +4858,16 @@
         <v>20</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>254</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
         <v>159</v>
@@ -5135,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>106</v>
@@ -5147,13 +4894,17 @@
         <v>50</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L100" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L100" s="12"/>
+      <c r="M100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="B101" t="s">
         <v>162</v>
       </c>
@@ -5167,7 +4918,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>106</v>
@@ -5179,16 +4930,17 @@
         <v>20</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L101" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L101" s="12"/>
+      <c r="M101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="B102" t="s">
         <v>166</v>
       </c>
@@ -5202,7 +4954,7 @@
         <v>16</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>168</v>
@@ -5214,13 +4966,16 @@
         <v>20</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L102" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="B103" t="s">
         <v>171</v>
       </c>
@@ -5234,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>168</v>
@@ -5246,13 +5001,13 @@
         <v>20</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L103" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>254</v>
+      </c>
+      <c r="M103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>174</v>
@@ -5267,7 +5022,7 @@
         <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>168</v>
@@ -5279,13 +5034,13 @@
         <v>50</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L104" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="M104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="B105" t="s">
         <v>177</v>
       </c>
@@ -5299,7 +5054,7 @@
         <v>37</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>168</v>
@@ -5311,13 +5066,17 @@
         <v>20</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L105" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L105" s="12"/>
+      <c r="M105" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>180</v>
@@ -5332,7 +5091,7 @@
         <v>48</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>168</v>
@@ -5344,13 +5103,16 @@
         <v>50</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M106" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="B107" t="s">
         <v>184</v>
       </c>
@@ -5364,7 +5126,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>168</v>
@@ -5376,13 +5138,17 @@
         <v>20</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L107" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="L107" s="15"/>
+      <c r="M107" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="B108" t="s">
         <v>188</v>
       </c>
@@ -5396,7 +5162,7 @@
         <v>37</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>168</v>
@@ -5408,13 +5174,13 @@
         <v>20</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L108" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>254</v>
+      </c>
+      <c r="M108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>191</v>
@@ -5429,7 +5195,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>168</v>
@@ -5441,13 +5207,13 @@
         <v>50</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>194</v>
@@ -5462,7 +5228,7 @@
         <v>48</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>168</v>
@@ -5474,13 +5240,13 @@
         <v>50</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L110" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="M110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="B111" t="s">
         <v>197</v>
       </c>
@@ -5494,7 +5260,7 @@
         <v>37</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>168</v>
@@ -5506,13 +5272,13 @@
         <v>20</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L111" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="M111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
         <v>200</v>
@@ -5527,7 +5293,7 @@
         <v>48</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>168</v>
@@ -5539,13 +5305,15 @@
         <v>20</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L112" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
       <c r="B113" t="s">
         <v>204</v>
       </c>
@@ -5559,7 +5327,7 @@
         <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>168</v>
@@ -5571,13 +5339,16 @@
         <v>20</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L113" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
       <c r="B114" t="s">
         <v>208</v>
       </c>
@@ -5591,7 +5362,7 @@
         <v>37</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>168</v>
@@ -5603,13 +5374,17 @@
         <v>20</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L114" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="K114" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L114" s="15"/>
+      <c r="M114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115" t="s">
         <v>211</v>
       </c>
@@ -5623,7 +5398,7 @@
         <v>37</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>168</v>
@@ -5635,18 +5410,22 @@
         <v>50</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L115" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12">
+        <v>254</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L115" s="12"/>
+      <c r="M115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>168</v>
@@ -5655,7 +5434,7 @@
         <v>37</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>168</v>
@@ -5667,18 +5446,18 @@
         <v>20</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12">
+        <v>246</v>
+      </c>
+      <c r="M116" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>202</v>
@@ -5687,7 +5466,7 @@
         <v>37</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>168</v>
@@ -5699,15 +5478,15 @@
         <v>20</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L117" s="12" t="s">
-        <v>307</v>
+        <v>246</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C2:J117">
-    <extLst>
+    <extLst xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
           <etc:chart etc:type="pie">
@@ -5720,7 +5499,8 @@
       </etc:autoFilterAnalysis>
     </extLst>
   </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$J$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$K$117</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="372">
   <si>
     <t>$HEAD</t>
   </si>
@@ -821,9 +821,6 @@
     <t>去除所有敌人的所有格挡值，移除目标所有“多层护甲”“金属化”“荆棘”“无实体”“缓冲”。</t>
   </si>
   <si>
-    <t>选择任意手牌消耗、任意数量能量，对随机敌人造成消耗的手牌数量+1和能量数量+1的乘积次数的？点伤害。每次伤害都给与目标1层“火元素”。</t>
-  </si>
-  <si>
     <t>获得1层“放大EX”。</t>
   </si>
   <si>
@@ -891,12 +888,6 @@
   </si>
   <si>
     <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
-  </si>
-  <si>
-    <t>无法被打出，抽到次牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
-  </si>
-  <si>
-    <t>选择任意手牌消耗，对随机敌人造成？点伤害消耗牌数的2倍次，消耗的牌每有1张“声”抽1张牌。</t>
   </si>
   <si>
     <t>获得1层“波动EX”。</t>
@@ -1086,6 +1077,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>过牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御，过牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,7 +1105,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻，控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌，能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻，削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择任意手牌消耗，对随机敌人造成消耗的手牌数量+1和X+1的乘积次数的？点伤害。每次伤害都给与目标1层“火元素”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>印卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被打出，抽到此牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量，过牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择任意手牌消耗，对随机敌人造成消耗牌数量的？倍次数的？点伤害，消耗的牌每有1张“声”抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌，回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻，印卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过牌强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻强化，印卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻，进攻强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御，防御强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻强化，防御削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御强化，进攻削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1372,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,10 +1656,10 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1546,8 +1672,8 @@
     <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -1595,11 +1721,11 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
@@ -1630,10 +1756,10 @@
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12"/>
       <c r="M3" t="s">
         <v>22</v>
       </c>
@@ -1663,10 +1789,10 @@
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="12"/>
       <c r="M4" t="s">
         <v>26</v>
       </c>
@@ -1696,10 +1822,10 @@
       <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="12"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -1729,10 +1855,10 @@
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="12"/>
       <c r="M6" t="s">
         <v>34</v>
       </c>
@@ -1762,10 +1888,10 @@
       <c r="I7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="12"/>
       <c r="M7" t="s">
         <v>41</v>
       </c>
@@ -1795,10 +1921,10 @@
       <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="12"/>
       <c r="M8" t="s">
         <v>45</v>
       </c>
@@ -1828,11 +1954,11 @@
       <c r="I9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="M9" t="s">
         <v>52</v>
@@ -1866,11 +1992,11 @@
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>332</v>
       </c>
       <c r="M10" t="s">
         <v>57</v>
@@ -1901,11 +2027,11 @@
       <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="M11" t="s">
         <v>61</v>
@@ -1936,8 +2062,8 @@
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>331</v>
+      <c r="K12" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="M12" t="s">
         <v>64</v>
@@ -1968,8 +2094,8 @@
       <c r="I13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>334</v>
+      <c r="K13" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="M13" t="s">
         <v>67</v>
@@ -2000,7 +2126,7 @@
       <c r="I14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M14" t="s">
@@ -2035,11 +2161,11 @@
       <c r="J15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="M15" t="s">
         <v>75</v>
@@ -2070,11 +2196,11 @@
       <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -2108,7 +2234,7 @@
       <c r="J17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M17" t="s">
@@ -2140,11 +2266,11 @@
       <c r="I18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="M18" t="s">
         <v>87</v>
@@ -2175,7 +2301,7 @@
       <c r="I19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M19" t="s">
@@ -2207,11 +2333,11 @@
       <c r="I20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="M20" t="s">
         <v>94</v>
@@ -2242,11 +2368,11 @@
       <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>331</v>
+      <c r="K21" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="M21" t="s">
         <v>97</v>
@@ -2277,11 +2403,11 @@
       <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="M22" t="s">
         <v>100</v>
@@ -2315,8 +2441,8 @@
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>338</v>
+      <c r="K23" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="M23" t="s">
         <v>103</v>
@@ -2347,8 +2473,8 @@
       <c r="I24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>337</v>
+      <c r="K24" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="M24" t="s">
         <v>108</v>
@@ -2379,11 +2505,11 @@
       <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M25" t="s">
         <v>112</v>
@@ -2414,8 +2540,8 @@
       <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>340</v>
+      <c r="K26" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="M26" t="s">
         <v>115</v>
@@ -2446,11 +2572,11 @@
       <c r="I27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M27" t="s">
         <v>119</v>
@@ -2481,11 +2607,11 @@
       <c r="I28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M28" t="s">
         <v>123</v>
@@ -2516,11 +2642,11 @@
       <c r="I29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M29" t="s">
         <v>127</v>
@@ -2551,11 +2677,11 @@
       <c r="I30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M30" t="s">
         <v>131</v>
@@ -2589,8 +2715,8 @@
       <c r="J31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>334</v>
+      <c r="K31" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="M31" t="s">
         <v>134</v>
@@ -2621,11 +2747,11 @@
       <c r="I32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="M32" t="s">
         <v>138</v>
@@ -2659,8 +2785,8 @@
       <c r="J33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>341</v>
+      <c r="K33" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="M33" t="s">
         <v>141</v>
@@ -2691,6 +2817,9 @@
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K34" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="M34" t="s">
         <v>144</v>
       </c>
@@ -2720,6 +2849,9 @@
       <c r="I35" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="K35" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M35" t="s">
         <v>147</v>
       </c>
@@ -2749,6 +2881,9 @@
       <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K36" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="M36" t="s">
         <v>151</v>
       </c>
@@ -2778,6 +2913,9 @@
       <c r="I37" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="K37" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M37" t="s">
         <v>154</v>
       </c>
@@ -2807,7 +2945,10 @@
       <c r="I38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="M38" t="s">
@@ -2839,6 +2980,9 @@
       <c r="I39" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="K39" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M39" t="s">
         <v>161</v>
       </c>
@@ -2868,7 +3012,10 @@
       <c r="I40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>164</v>
       </c>
       <c r="M40" t="s">
@@ -2900,7 +3047,8 @@
       <c r="I41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="12"/>
+      <c r="L41" s="1" t="s">
         <v>169</v>
       </c>
       <c r="M41" t="s">
@@ -2935,6 +3083,7 @@
       <c r="J42" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="K42" s="12"/>
       <c r="M42" t="s">
         <v>173</v>
       </c>
@@ -2964,6 +3113,9 @@
       <c r="I43" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="K43" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M43" t="s">
         <v>176</v>
       </c>
@@ -2993,6 +3145,9 @@
       <c r="I44" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K44" s="12" t="s">
+        <v>342</v>
+      </c>
       <c r="M44" t="s">
         <v>179</v>
       </c>
@@ -3022,7 +3177,7 @@
       <c r="I45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>182</v>
       </c>
       <c r="M45" t="s">
@@ -3054,7 +3209,10 @@
       <c r="I46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>186</v>
       </c>
       <c r="M46" t="s">
@@ -3086,6 +3244,9 @@
       <c r="I47" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K47" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="M47" t="s">
         <v>190</v>
       </c>
@@ -3115,6 +3276,9 @@
       <c r="I48" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="K48" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M48" t="s">
         <v>193</v>
       </c>
@@ -3147,6 +3311,9 @@
       <c r="J49" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="K49" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="M49" t="s">
         <v>196</v>
       </c>
@@ -3176,6 +3343,9 @@
       <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K50" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="M50" t="s">
         <v>199</v>
       </c>
@@ -3206,7 +3376,9 @@
         <v>20</v>
       </c>
       <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="L51" s="12"/>
       <c r="M51" t="s">
         <v>203</v>
@@ -3237,7 +3409,10 @@
       <c r="I52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>206</v>
       </c>
       <c r="M52" t="s">
@@ -3272,6 +3447,9 @@
       <c r="J53" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="K53" s="12" t="s">
+        <v>342</v>
+      </c>
       <c r="M53" t="s">
         <v>210</v>
       </c>
@@ -3305,9 +3483,11 @@
         <v>55</v>
       </c>
       <c r="K54" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L54" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L54" s="12"/>
       <c r="M54" t="s">
         <v>214</v>
       </c>
@@ -3337,7 +3517,10 @@
       <c r="I55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>216</v>
       </c>
       <c r="M55" t="s">
@@ -3373,11 +3556,13 @@
         <v>55</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L56" s="12"/>
+        <v>339</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="M56" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="2:13">
@@ -3469,6 +3654,9 @@
       <c r="J59" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="K59" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M59" t="s">
         <v>231</v>
       </c>
@@ -3501,6 +3689,9 @@
       <c r="J60" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="K60" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M60" t="s">
         <v>235</v>
       </c>
@@ -3533,6 +3724,9 @@
       <c r="J61" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="K61" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M61" t="s">
         <v>238</v>
       </c>
@@ -3565,6 +3759,9 @@
       <c r="J62" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="K62" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M62" t="s">
         <v>241</v>
       </c>
@@ -3597,6 +3794,9 @@
       <c r="J63" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="K63" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M63" t="s">
         <v>244</v>
       </c>
@@ -3629,7 +3829,8 @@
       <c r="J64" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="12"/>
+      <c r="L64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M64" t="s">
@@ -3664,7 +3865,8 @@
       <c r="J65" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="12"/>
+      <c r="L65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M65" t="s">
@@ -3699,7 +3901,8 @@
       <c r="J66" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="12"/>
+      <c r="L66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M66" t="s">
@@ -3734,7 +3937,8 @@
       <c r="J67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="12"/>
+      <c r="L67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M67" t="s">
@@ -3769,10 +3973,10 @@
       <c r="J68" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K68" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>301</v>
+      </c>
       <c r="M68" t="s">
         <v>251</v>
       </c>
@@ -3805,10 +4009,10 @@
       <c r="J69" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K69" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="L69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="M69" t="s">
         <v>252</v>
       </c>
@@ -3842,7 +4046,10 @@
       <c r="J70" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>51</v>
       </c>
       <c r="M70" t="s">
@@ -3878,11 +4085,14 @@
       <c r="J71" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3914,9 +4124,11 @@
         <v>246</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="L72" s="12"/>
+        <v>347</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="M72" t="s">
         <v>255</v>
       </c>
@@ -3950,9 +4162,11 @@
         <v>246</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="L73" s="12"/>
+        <v>340</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="M73" t="s">
         <v>256</v>
       </c>
@@ -4019,9 +4233,11 @@
         <v>246</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="L75" s="12"/>
+        <v>347</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="M75" t="s">
         <v>258</v>
       </c>
@@ -4055,7 +4271,10 @@
       <c r="J76" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="M76" t="s">
@@ -4092,11 +4311,13 @@
         <v>246</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="L77" s="12"/>
+        <v>349</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>307</v>
+      </c>
       <c r="M77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4127,7 +4348,10 @@
       <c r="J78" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M78" t="s">
@@ -4163,7 +4387,10 @@
       <c r="J79" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M79" t="s">
@@ -4198,7 +4425,7 @@
       <c r="J80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M80" t="s">
@@ -4234,7 +4461,10 @@
       <c r="J81" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M81" t="s">
@@ -4270,9 +4500,11 @@
         <v>246</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="L82" s="12"/>
+        <v>340</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="M82" t="s">
         <v>264</v>
       </c>
@@ -4306,7 +4538,10 @@
       <c r="J83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M83" t="s">
@@ -4340,6 +4575,9 @@
       </c>
       <c r="J84" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="M84" t="s">
         <v>266</v>
@@ -4353,8 +4591,8 @@
       <c r="C85" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="2">
-        <v>2</v>
+      <c r="D85" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>48</v>
@@ -4375,11 +4613,13 @@
         <v>246</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="L85" s="12"/>
+        <v>339</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>309</v>
+      </c>
       <c r="M85" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4411,11 +4651,13 @@
         <v>246</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="L86" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="M86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4446,8 +4688,11 @@
       <c r="J87" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K87" s="12" t="s">
+        <v>342</v>
+      </c>
       <c r="M87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4479,11 +4724,13 @@
         <v>246</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="L88" s="12"/>
+        <v>371</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>311</v>
+      </c>
       <c r="M88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4515,11 +4762,13 @@
         <v>246</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L89" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="M89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4551,11 +4800,13 @@
         <v>246</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L90" s="12"/>
+        <v>365</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>313</v>
+      </c>
       <c r="M90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4587,11 +4838,13 @@
         <v>246</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="L91" s="12"/>
+        <v>362</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="M91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4623,7 +4876,7 @@
         <v>254</v>
       </c>
       <c r="M92" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4655,11 +4908,13 @@
         <v>246</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L93" s="12"/>
+        <v>365</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="M93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4690,8 +4945,11 @@
       <c r="J94" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="K94" s="12" t="s">
+        <v>352</v>
+      </c>
       <c r="M94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4722,8 +4980,11 @@
       <c r="J95" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K95" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="M95" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4756,11 +5017,13 @@
         <v>246</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="L96" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>316</v>
+      </c>
       <c r="M96" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4792,11 +5055,13 @@
         <v>246</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="L97" s="12"/>
+        <v>367</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="M97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4828,8 +5093,11 @@
       <c r="J98" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K98" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4860,11 +5128,14 @@
       <c r="J99" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="M99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4897,11 +5168,13 @@
         <v>246</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="L100" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="M100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4933,11 +5206,13 @@
         <v>246</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L101" s="12"/>
+        <v>341</v>
+      </c>
+      <c r="L101" s="12" t="s">
+        <v>321</v>
+      </c>
       <c r="M101" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4968,11 +5243,11 @@
       <c r="J102" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>169</v>
       </c>
       <c r="M102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5003,8 +5278,11 @@
       <c r="J103" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="K103" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="M103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5036,8 +5314,11 @@
       <c r="J104" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K104" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5069,11 +5350,13 @@
         <v>246</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L105" s="12"/>
+        <v>368</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="M105" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5105,11 +5388,14 @@
       <c r="J106" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K106" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>182</v>
       </c>
       <c r="M106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5141,11 +5427,13 @@
         <v>246</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="L107" s="15"/>
+        <v>342</v>
+      </c>
+      <c r="L107" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="M107" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5176,8 +5464,11 @@
       <c r="J108" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="K108" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="M108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5209,8 +5500,11 @@
       <c r="J109" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K109" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="M109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5242,8 +5536,11 @@
       <c r="J110" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="K110" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="M110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5274,8 +5571,11 @@
       <c r="J111" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K111" s="12" t="s">
+        <v>354</v>
+      </c>
       <c r="M111" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5307,10 +5607,12 @@
       <c r="J112" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K112" s="12"/>
+      <c r="K112" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="L112" s="12"/>
       <c r="M112" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="2:13">
@@ -5341,11 +5643,14 @@
       <c r="J113" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="K113" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>206</v>
       </c>
       <c r="M113" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="2:13">
@@ -5377,11 +5682,13 @@
         <v>254</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="L114" s="15"/>
+        <v>356</v>
+      </c>
+      <c r="L114" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="M114" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="2:13">
@@ -5413,19 +5720,21 @@
         <v>254</v>
       </c>
       <c r="K115" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="L115" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L115" s="12"/>
       <c r="M115" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>168</v>
@@ -5448,16 +5757,19 @@
       <c r="J116" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K116" s="12" t="s">
+        <v>354</v>
+      </c>
       <c r="M116" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>202</v>
@@ -5480,25 +5792,15 @@
       <c r="J117" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K117" s="12" t="s">
+        <v>358</v>
+      </c>
       <c r="M117" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:J117">
-    <extLst xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
-        <etc:analysisCharts>
-          <etc:chart etc:type="pie">
-            <etc:category etc:colId="0"/>
-            <etc:seriesCollections etc:count="1">
-              <etc:series etc:colId="0" etc:subtotal="count"/>
-            </etc:seriesCollections>
-          </etc:chart>
-        </etc:analysisCharts>
-      </etc:autoFilterAnalysis>
-    </extLst>
-  </autoFilter>
+  <autoFilter ref="D2:K117"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="12645"/>
+    <workbookView windowWidth="22155" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$K$117</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357">
   <si>
     <t>$HEAD</t>
   </si>
@@ -56,6 +55,9 @@
     <t>keyword</t>
   </si>
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>ConnectedPower</t>
   </si>
   <si>
@@ -143,7 +145,7 @@
     <t>光元素</t>
   </si>
   <si>
-    <t>给与所有敌人？层“光元素”</t>
+    <t>给与所有敌人2层“光元素”</t>
   </si>
   <si>
     <t>Dark</t>
@@ -155,7 +157,7 @@
     <t>暗元素</t>
   </si>
   <si>
-    <t>给与所有敌人？层“暗元素”</t>
+    <t>给与所有敌人2层“暗元素”</t>
   </si>
   <si>
     <t>Wood</t>
@@ -173,10 +175,13 @@
     <t>敌人</t>
   </si>
   <si>
+    <t>防御，进攻</t>
+  </si>
+  <si>
     <t>地元素，锁链，勒脖</t>
   </si>
   <si>
-    <t>本回合减少目标？点力量。目标身上“地元素”的层数大于？层时，消耗？层“地元素”，额外对其施加？次“勒脖”。给与目标？层“地元素”。</t>
+    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上“地元素”的层数大于12层时，消耗12层“地元素”，额外对其施加2次“勒脖”。给与目标2层“地元素”。</t>
   </si>
   <si>
     <t>Flower</t>
@@ -188,10 +193,13 @@
     <t>消耗</t>
   </si>
   <si>
+    <t>防御，回复</t>
+  </si>
+  <si>
     <t>地元素</t>
   </si>
   <si>
-    <t>获得所有敌人身上“地元素”层数和？倍的格挡，回复所有敌人身上“水元素”层数和？倍的生命。给与目标？层“地元素”。</t>
+    <t>获得所有敌人身上“地元素”层数和1/2的格挡，回复所有敌人身上“水元素”层数和1/4的生命。给与目标2层“地元素”。</t>
   </si>
   <si>
     <t>Sand</t>
@@ -203,7 +211,7 @@
     <t>地元素，易伤</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。目标身上“地元素”的层数大于？时，消耗？层“地元素”给与目标？层“易伤”。给与目标？层“地元素”。</t>
+    <t>对目标造成3点伤害。目标身上“地元素”的层数大于15时，消耗15层“地元素”给与目标2层“易伤”。给与目标3层“地元素”。</t>
   </si>
   <si>
     <t>Maze</t>
@@ -212,7 +220,10 @@
     <t>迷</t>
   </si>
   <si>
-    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。</t>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>获得14点格挡。额外获得所有敌人身上“地元素”层数和1倍的格挡。</t>
   </si>
   <si>
     <t>Bubbles</t>
@@ -221,7 +232,10 @@
     <t>泡</t>
   </si>
   <si>
-    <t>清除目标身上的1个随机buff。目标身上“水元素”层数大于？时，消耗？层水元素，清除所有buff。</t>
+    <t>净化</t>
+  </si>
+  <si>
+    <t>清除目标身上的1个随机buff。目标身上“水元素”层数大于18时，消耗18层水元素，清除所有buff。</t>
   </si>
   <si>
     <t>Rain</t>
@@ -233,7 +247,7 @@
     <t>水元素</t>
   </si>
   <si>
-    <t>给与目标？层“水元素”？次。</t>
+    <t>给与目标2层“水元素”5次。</t>
   </si>
   <si>
     <t>Freeze</t>
@@ -242,10 +256,13 @@
     <t>冻</t>
   </si>
   <si>
+    <t>进攻，控制</t>
+  </si>
+  <si>
     <t>水元素，冰冻</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“冰冻”。目标身上的“水元素”层数大于？时，造成额外？点伤害。给与目标？层“水元素”。</t>
+    <t>对目标造成5点伤害。给与目标1层“冰冻”。目标身上的“水元素”层数大于12时，消耗12层“水元素”造成额外6点伤害。给与目标2层“水元素”。</t>
   </si>
   <si>
     <t>Snow</t>
@@ -254,10 +271,13 @@
     <t>雪</t>
   </si>
   <si>
+    <t>控制，削弱</t>
+  </si>
+  <si>
     <t>水元素，风元素，冰冻</t>
   </si>
   <si>
-    <t>对所有敌人造成？点伤害。目标身上“水元素”的层数大于？层时，消耗？层“水元素”给与目标？层“冰冻”。目标身上“风元素”的层数大于？层时，消耗？层“风元素”给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+    <t>对所有敌人造成9点伤害。目标身上“水元素”的层数大于16层时，消耗16层“水元素”给与目标1层“冰冻”。目标身上“风元素”的层数大于18层时，消耗18层“风元素”给与目标3层“虚弱”。给与目标2层“水元素”和2层“风元素”。</t>
   </si>
   <si>
     <t>Cloud</t>
@@ -278,10 +298,13 @@
     <t>岚</t>
   </si>
   <si>
+    <t>进攻</t>
+  </si>
+  <si>
     <t>风元素</t>
   </si>
   <si>
-    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”，造成层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
+    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”，造成层数之和2/3的伤害。给与目标3层“风元素”。</t>
   </si>
   <si>
     <t>Glow</t>
@@ -290,7 +313,7 @@
     <t>灯</t>
   </si>
   <si>
-    <t>移除目标身上所有“暗元素”，移除的“暗元素”每有？层，给与1层“光元素”。</t>
+    <t>移除目标身上所有“暗元素”，移除的“暗元素”每有2层，给与1层“光元素”。</t>
   </si>
   <si>
     <t>Thunder</t>
@@ -302,7 +325,7 @@
     <t>火元素</t>
   </si>
   <si>
-    <t>对随机目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
+    <t>对随机目标造成9点伤害3次。当击中的目标身上存在“光元素”时，消耗目标身上所有“光元素”，每有？层伤害总次数翻倍。每次伤害给与目标？层“火元素”。</t>
   </si>
   <si>
     <t>Shadow</t>
@@ -311,7 +334,10 @@
     <t>影</t>
   </si>
   <si>
-    <t>获得？点格挡。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
+    <t>多层护甲</t>
+  </si>
+  <si>
+    <t>获得5点格挡。消耗所有敌人身上的“暗元素”，获得消耗层数和1倍的多层护甲。</t>
   </si>
   <si>
     <t>Erase</t>
@@ -320,7 +346,7 @@
     <t>消</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，如果目标身上有“爪牙”，则立即消灭。给与目标？层“暗元素”。</t>
+    <t>对目标造成6点伤害，如果目标身上有“爪牙”，则立即消灭。给与目标2层“暗元素”。</t>
   </si>
   <si>
     <t>Mist</t>
@@ -329,6 +355,9 @@
     <t>雾</t>
   </si>
   <si>
+    <t>削弱</t>
+  </si>
+  <si>
     <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于？层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。</t>
   </si>
   <si>
@@ -365,6 +394,9 @@
     <t>替</t>
   </si>
   <si>
+    <t>过牌</t>
+  </si>
+  <si>
     <t>丢弃最多？张手牌，并从卡组中选择相同数量的牌加入手牌。</t>
   </si>
   <si>
@@ -374,6 +406,9 @@
     <t>驱</t>
   </si>
   <si>
+    <t>过牌强化</t>
+  </si>
+  <si>
     <t>冲刺</t>
   </si>
   <si>
@@ -386,6 +421,9 @@
     <t>斗</t>
   </si>
   <si>
+    <t>进攻强化</t>
+  </si>
+  <si>
     <t>格斗</t>
   </si>
   <si>
@@ -398,6 +436,9 @@
     <t>浮</t>
   </si>
   <si>
+    <t>防御强化</t>
+  </si>
+  <si>
     <t>漂浮</t>
   </si>
   <si>
@@ -443,6 +484,9 @@
     <t>镜</t>
   </si>
   <si>
+    <t>印卡</t>
+  </si>
+  <si>
     <t>选择1张手牌，添加1张相同的牌到手中</t>
   </si>
   <si>
@@ -452,6 +496,9 @@
     <t>移</t>
   </si>
   <si>
+    <t>防御，过牌</t>
+  </si>
+  <si>
     <t>获得？点格挡。选择？张弃牌堆中的牌，放到抽排队顶部。</t>
   </si>
   <si>
@@ -512,6 +559,9 @@
     <t>双</t>
   </si>
   <si>
+    <t>强化</t>
+  </si>
+  <si>
     <t>双生</t>
   </si>
   <si>
@@ -590,6 +640,9 @@
     <t>甘</t>
   </si>
   <si>
+    <t>回复</t>
+  </si>
+  <si>
     <t>恢复？点生命值。</t>
   </si>
   <si>
@@ -617,6 +670,9 @@
     <t>声</t>
   </si>
   <si>
+    <t>过牌，能量</t>
+  </si>
+  <si>
     <t>无法被打出，抽到此牌时额外抽一张牌。被消耗时获得1能量。</t>
   </si>
   <si>
@@ -659,6 +715,9 @@
     <t>睡</t>
   </si>
   <si>
+    <t>控制</t>
+  </si>
+  <si>
     <t>睡眠</t>
   </si>
   <si>
@@ -683,6 +742,12 @@
     <t>符咒</t>
   </si>
   <si>
+    <t>封印</t>
+  </si>
+  <si>
+    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，获得1层“封印”。</t>
+  </si>
+  <si>
     <t>Release</t>
   </si>
   <si>
@@ -773,33 +838,63 @@
     <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
   </si>
   <si>
+    <t>阳魔法</t>
+  </si>
+  <si>
     <t>获得1层“阳魔法”。给与所有敌人？层“光元素”，</t>
   </si>
   <si>
+    <t>阴魔法</t>
+  </si>
+  <si>
     <t>获得1层“阴魔法”。给与所有敌人？层“暗元素”。</t>
   </si>
   <si>
-    <t>本回合减少目标？点力量。目标身上有“地元素”时将其消耗，每有？层地元素对其施加层数？倍的“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
+    <t>进攻，削弱</t>
+  </si>
+  <si>
+    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上有“地元素”时将其消耗，每有？层地元素对其施加层数？倍的“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
   </si>
   <si>
     <t>唯一，消耗</t>
   </si>
   <si>
+    <t>回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。</t>
+  </si>
+  <si>
+    <t>地元素，易伤，虚弱，缓慢</t>
+  </si>
+  <si>
     <t>对目标造成？点伤害。给与目标？层“易伤”和“虚弱”。给与目标1层“缓慢”。给与目标？层“地元素”。</t>
   </si>
   <si>
+    <t>残影</t>
+  </si>
+  <si>
     <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。回合结束时，格挡值不会消失。</t>
   </si>
   <si>
     <t>清除目标身上的所有buff。给与目标？层“水元素”。</t>
   </si>
   <si>
+    <t>水元素，易伤</t>
+  </si>
+  <si>
     <t>给与目标？层“水元素”和“易伤”？次。</t>
   </si>
   <si>
     <t>对目标造成？点伤害。给与目标？层“冰冻”。造成目标身上“水元素”层数？倍的额外体力流失。给与目标？层“水元素”。</t>
   </si>
   <si>
+    <t>水元素，风元素，冰冻，虚弱</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+  </si>
+  <si>
+    <t>进攻强化，印卡</t>
+  </si>
+  <si>
     <t>获得1层“云层”。从“雨”“雪”“岚”“雷”四张牌中选择一张加入手牌。</t>
   </si>
   <si>
@@ -812,6 +907,9 @@
     <t>对目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
   </si>
   <si>
+    <t>无实体，多层护甲</t>
+  </si>
+  <si>
     <t>获得？层无实体。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
   </si>
   <si>
@@ -821,27 +919,51 @@
     <t>去除所有敌人的所有格挡值，移除目标所有“多层护甲”“金属化”“荆棘”“无实体”“缓冲”。</t>
   </si>
   <si>
+    <t>选择任意手牌消耗，对随机敌人造成消耗的手牌数量+1和X+1的乘积次数的？点伤害。每次伤害都给与目标1层“火元素”。</t>
+  </si>
+  <si>
+    <t>放大EX</t>
+  </si>
+  <si>
     <t>获得1层“放大EX”。</t>
   </si>
   <si>
     <t>丢弃任意数量的手牌，并从卡组中选择相同数量的牌加入手牌。</t>
   </si>
   <si>
+    <t>削弱强化</t>
+  </si>
+  <si>
+    <t>冲刺EX</t>
+  </si>
+  <si>
     <t>获得1层“冲刺EX”。</t>
   </si>
   <si>
+    <t>格斗EX</t>
+  </si>
+  <si>
     <t>获得1层“格斗EX”。</t>
   </si>
   <si>
+    <t>漂浮EX</t>
+  </si>
+  <si>
     <t>获得1层“漂浮EX”。</t>
   </si>
   <si>
+    <t>双翼</t>
+  </si>
+  <si>
     <t>获得1层“双翼”。</t>
   </si>
   <si>
     <t>逃离战斗。抽到这张牌时，额外抽1张牌。</t>
   </si>
   <si>
+    <t>缩小EX</t>
+  </si>
+  <si>
     <t>获得1层“缩小EX”。</t>
   </si>
   <si>
@@ -851,9 +973,21 @@
     <t>交换抽排堆和弃牌堆的牌，获得等于两牌堆数中较大值的格挡值。抽？张牌。</t>
   </si>
   <si>
+    <t>进攻，进攻强化</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
     <t>对目标造成？点伤害，受到？倍力量加成。当目标的力量层数大于自己时，获得？层力量。</t>
   </si>
   <si>
+    <t>防御，防御强化</t>
+  </si>
+  <si>
+    <t>金属化，多层护甲</t>
+  </si>
+  <si>
     <t>获得？点格挡，获得？层金属化，？点多层护甲。</t>
   </si>
   <si>
@@ -863,9 +997,15 @@
     <t>获得？层缓冲，结束当前回合。</t>
   </si>
   <si>
+    <t>易伤</t>
+  </si>
+  <si>
     <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
   </si>
   <si>
+    <t>双生EX</t>
+  </si>
+  <si>
     <t>你所有使用的牌都会被额外打出一次。</t>
   </si>
   <si>
@@ -878,149 +1018,25 @@
     <t>随机打出X张攻击牌，消耗区每有？张牌，额外随机打出1张牌。</t>
   </si>
   <si>
+    <t>能量强化</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>获得1层“平衡”。</t>
+  </si>
+  <si>
     <t>对目标造成？点伤害，给与目标？层“锁定”。</t>
   </si>
   <si>
-    <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
-  </si>
-  <si>
-    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
-  </si>
-  <si>
-    <t>获得1层“波动EX”。</t>
-  </si>
-  <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
-  </si>
-  <si>
-    <t>给与目标99层“睡眠”。</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>心</t>
-  </si>
-  <si>
-    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>希望</t>
-  </si>
-  <si>
-    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
-  </si>
-  <si>
-    <t>封印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，获得1层“封印”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地元素，易伤，虚弱，缓慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素，易伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素，风元素，冰冻，虚弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂浮EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属化，多层护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多层护甲</t>
-  </si>
-  <si>
-    <t>无实体，多层护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层“平衡”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>圈环E</t>
     </r>
     <r>
@@ -1028,204 +1044,80 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>X</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
+  </si>
+  <si>
+    <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
+  </si>
+  <si>
+    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+  </si>
+  <si>
+    <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
+  </si>
+  <si>
+    <t>能量，过牌</t>
+  </si>
+  <si>
+    <t>无法被打出，抽到此牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
+  </si>
+  <si>
+    <t>选择任意手牌消耗，对随机敌人造成消耗牌数量的？倍次数的？点伤害，消耗的牌每有1张“声”抽1张牌。</t>
+  </si>
+  <si>
+    <t>获得1层“波动EX”。</t>
+  </si>
+  <si>
+    <t>过牌，回复</t>
   </si>
   <si>
     <t>回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御，回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御，进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻，控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制，削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御，过牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻，控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌，能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻，削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制，削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择任意手牌消耗，对随机敌人造成消耗的手牌数量+1和X+1的乘积次数的？点伤害。每次伤害都给与目标1层“火元素”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被打出，抽到此牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量，过牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择任意手牌消耗，对随机敌人造成消耗牌数量的？倍次数的？点伤害，消耗的牌每有1张“声”抽1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌，回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
+  </si>
+  <si>
+    <t>给与目标99层“睡眠”。</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>希望</t>
   </si>
   <si>
     <t>进攻，印卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻强化，印卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻，进攻强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御，防御强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻强化，防御削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御强化，进攻削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>削弱强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,21 +1126,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,7 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,13 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,8 +1338,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1318,9 +1533,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,27 +1821,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF99CC"/>
+      <color rgb="00FF99CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1647,19 +2151,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <pane xSplit="21960" topLeftCell="Y3" activePane="topLeft"/>
+      <selection activeCell="O9" sqref="O9"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1668,18 +2171,19 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,4087 +2226,4087 @@
         <v>11</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>329</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>331</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>333</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>335</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>331</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M37" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M39" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M40" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K42" s="12"/>
       <c r="M42" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M43" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="M44" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M45" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M46" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>363</v>
+        <v>134</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M54" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="2:13">
       <c r="B56" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="M56" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="2:13">
       <c r="B57" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M58" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M59" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M60" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M61" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M62" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M63" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="2:13">
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="M68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="M69" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M70" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M71" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M72" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="M73" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="M74" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="M75" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M76" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M77" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M78" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M80" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2">
         <v>3</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M81" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="M82" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D83" s="2">
         <v>3</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="M84" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>350</v>
+        <v>115</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="M85" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>363</v>
+        <v>134</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="M87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>363</v>
+        <v>134</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D90" s="2">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M90" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D91" s="2">
         <v>2</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="L93" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M93" t="s">
         <v>315</v>
       </c>
-      <c r="M93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="M94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M96" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M97" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M99" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M100" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D101" s="2">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M101" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M102" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="M103" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="M105" s="14" t="s">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M106" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="L107" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="M107" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>268</v>
+      </c>
+      <c r="K107" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="M108" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="M109" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D110" s="2">
         <v>3</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H110" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="M110" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="B111" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M111" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L112" s="12"/>
       <c r="M112" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D113" s="2">
         <v>2</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>363</v>
+        <v>134</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M113" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K114" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>326</v>
+        <v>279</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="M114" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="2:13">
       <c r="B115" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D115" s="2">
         <v>2</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M115" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M116" s="12" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>297</v>
+        <v>353</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D2:K117"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22155" windowHeight="12645"/>
+    <workbookView windowWidth="17115" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$K$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$H$117</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
   <si>
     <t>$HEAD</t>
   </si>
@@ -145,7 +145,7 @@
     <t>光元素</t>
   </si>
   <si>
-    <t>给与所有敌人2层“光元素”</t>
+    <t>给与所有敌人1层“光元素”</t>
   </si>
   <si>
     <t>Dark</t>
@@ -181,7 +181,7 @@
     <t>地元素，锁链，勒脖</t>
   </si>
   <si>
-    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上“地元素”的层数大于12层时，消耗12层“地元素”，额外对其施加2次“勒脖”。给与目标2层“地元素”。</t>
+    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上“地元素”的层数大于8层时，消耗8层“地元素”，额外对其施加2次“勒脖”。给与目标2层“地元素”。</t>
   </si>
   <si>
     <t>Flower</t>
@@ -289,7 +289,7 @@
     <t>云层</t>
   </si>
   <si>
-    <t>获得1层“云层”。</t>
+    <t>获得1层“云层”。给与所有敌人1层“暗元素”。</t>
   </si>
   <si>
     <t>Storm</t>
@@ -313,7 +313,7 @@
     <t>灯</t>
   </si>
   <si>
-    <t>移除目标身上所有“暗元素”，移除的“暗元素”每有2层，给与1层“光元素”。</t>
+    <t>移除目标身上所有“暗元素”，移除的“暗元素”每有3层，给与1层“光元素”。</t>
   </si>
   <si>
     <t>Thunder</t>
@@ -325,7 +325,7 @@
     <t>火元素</t>
   </si>
   <si>
-    <t>对随机目标造成9点伤害3次。当击中的目标身上存在“光元素”时，消耗目标身上所有“光元素”，每有？层伤害总次数翻倍。每次伤害给与目标？层“火元素”。</t>
+    <t>对随机目标造成9点伤害3次。当击中的目标身上存在“光元素”时，消耗目标身上所有“光元素”，每消耗1层额外造成2次伤害。每次伤害给与目标1层“火元素”。</t>
   </si>
   <si>
     <t>Shadow</t>
@@ -358,7 +358,7 @@
     <t>削弱</t>
   </si>
   <si>
-    <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于？层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。</t>
+    <t>去除所有敌人的所有格挡值。目标身上“暗元素”的层数大于4层时，移除其身上所有“多层护甲”“金属化”和“荆棘”。给与所有敌人1层“暗元素”。</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -373,7 +373,7 @@
     <t>随机敌人</t>
   </si>
   <si>
-    <t>选择任意手牌消耗、任意数量能量，对随机敌人造成？点伤害。额外造成消耗的手牌数量和能量数量之和次数的伤害。</t>
+    <t>选择任意手牌消耗、任意数量能量，对随机敌人造成4点伤害。额外造成消耗的手牌数量和能量数量之和次数的伤害。</t>
   </si>
   <si>
     <t>Big</t>
@@ -397,7 +397,7 @@
     <t>过牌</t>
   </si>
   <si>
-    <t>丢弃最多？张手牌，并从卡组中选择相同数量的牌加入手牌。</t>
+    <t>丢弃最多2张手牌，并从卡组中选择相同数量的牌加入手牌。</t>
   </si>
   <si>
     <t>Dash</t>
@@ -442,7 +442,7 @@
     <t>漂浮</t>
   </si>
   <si>
-    <t>获得？层“漂浮”。</t>
+    <t>获得2层“漂浮”。</t>
   </si>
   <si>
     <t>Fly</t>
@@ -454,7 +454,7 @@
     <t>飞行</t>
   </si>
   <si>
-    <t>获得？点格挡，获得？层飞行。</t>
+    <t>获得8点格挡，获得3层飞行。</t>
   </si>
   <si>
     <t>Jump</t>
@@ -463,7 +463,7 @@
     <t>跳</t>
   </si>
   <si>
-    <t>获得？点格挡，随机移除身上的1个debuff。</t>
+    <t>获得7点格挡，随机移除身上的1个debuff。</t>
   </si>
   <si>
     <t>Little</t>
@@ -499,7 +499,7 @@
     <t>防御，过牌</t>
   </si>
   <si>
-    <t>获得？点格挡。选择？张弃牌堆中的牌，放到抽排队顶部。</t>
+    <t>获得4点格挡。选择1张弃牌堆中的牌，放到抽排队顶部。</t>
   </si>
   <si>
     <t>Power</t>
@@ -508,7 +508,10 @@
     <t>力</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，受到？倍力量加成。</t>
+    <t>对目标造成12点伤害，受到3倍力量加成。</t>
+  </si>
+  <si>
+    <t>Start</t>
   </si>
   <si>
     <t>Shield</t>
@@ -529,7 +532,7 @@
     <t>击</t>
   </si>
   <si>
-    <t>对目标造成？点伤害？次。</t>
+    <t>对目标造成2点伤害4次。</t>
   </si>
   <si>
     <t>Silent</t>
@@ -541,7 +544,7 @@
     <t>缓冲</t>
   </si>
   <si>
-    <t>获得？层缓冲，下回合无法使用攻击牌。</t>
+    <t>获得1层缓冲，下回合无法使用攻击牌。</t>
   </si>
   <si>
     <t>Sword</t>
@@ -589,7 +592,7 @@
     <t>梦</t>
   </si>
   <si>
-    <t>增加？层“封印之杖”“星之杖”或“日月星杖”的计数。</t>
+    <t>增加3层“封印之杖”“星之杖”或“日月星杖”的计数。</t>
   </si>
   <si>
     <t>Illusion</t>
@@ -598,7 +601,7 @@
     <t>幻</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，消耗区每有？张牌，额外造成1次伤害。</t>
+    <t>对目标造成5点伤害，消耗区每有2张牌，额外造成1次伤害。</t>
   </si>
   <si>
     <t>Libra</t>
@@ -607,7 +610,7 @@
     <t>秤</t>
   </si>
   <si>
-    <t>选择一张手牌丢弃并抽一张牌，如果抽出的牌的类型和丢弃的手牌类型相同，则获得？点格挡。</t>
+    <t>选择1张手牌丢弃并抽1张牌，如果抽出的牌的类型和丢弃的手牌类型相同，则获得5点格挡。</t>
   </si>
   <si>
     <t>Lock</t>
@@ -619,7 +622,7 @@
     <t>锁定</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，给与目标1层“锁定”。</t>
+    <t>对目标造成3点伤害，给与目标1层“锁定”。</t>
   </si>
   <si>
     <t>Loop</t>
@@ -643,7 +646,7 @@
     <t>回复</t>
   </si>
   <si>
-    <t>恢复？点生命值。</t>
+    <t>恢复4点生命值。</t>
   </si>
   <si>
     <t>Through</t>
@@ -652,7 +655,7 @@
     <t>拔</t>
   </si>
   <si>
-    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
+    <t>消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和1倍的伤害。</t>
   </si>
   <si>
     <t>Time</t>
@@ -661,7 +664,7 @@
     <t>时</t>
   </si>
   <si>
-    <t>对所有敌人造成？点伤害，打断所有敌人下回合的所有动作，无法被人工制品阻挡。</t>
+    <t>对所有敌人造成10点伤害，打断所有敌人下回合的所有动作，无法被人工制品阻挡。</t>
   </si>
   <si>
     <t>Voice</t>
@@ -673,7 +676,7 @@
     <t>过牌，能量</t>
   </si>
   <si>
-    <t>无法被打出，抽到此牌时额外抽一张牌。被消耗时获得1能量。</t>
+    <t>无法被打出，抽到此牌时额外抽1张牌。被消耗时获得1能量。</t>
   </si>
   <si>
     <t>Song</t>
@@ -685,7 +688,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>选择最多X+1张手牌消耗，每消耗1张牌对随机1名敌人造成？点伤害，消耗的牌每有1张“声”额外造成1次伤害。</t>
+    <t>选择最多X+1张手牌消耗，每消耗1张牌对随机1名敌人造成7点伤害，消耗的牌每有1张“声”额外造成1次伤害。</t>
   </si>
   <si>
     <t>Wave</t>
@@ -706,7 +709,7 @@
     <t>回</t>
   </si>
   <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。</t>
+    <t>选择2张消耗区的牌返回抽排堆，并抽1张牌。</t>
   </si>
   <si>
     <t>Sleep</t>
@@ -745,7 +748,7 @@
     <t>封印</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，如果这张牌击杀了一名敌人，获得1层“封印”。</t>
+    <t>对目标造成9点伤害，如果这张牌击杀了一名敌人，获得1层“封印”。</t>
   </si>
   <si>
     <t>Release</t>
@@ -754,7 +757,7 @@
     <t>解</t>
   </si>
   <si>
-    <t>消耗一张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成？点伤害。</t>
+    <t>消耗1张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成4点伤害。</t>
   </si>
   <si>
     <t>Turn</t>
@@ -766,10 +769,10 @@
     <t>特殊</t>
   </si>
   <si>
-    <t>保留，消耗</t>
-  </si>
-  <si>
-    <t>选择一张手牌消耗。如果消耗了一张库洛牌，将这张牌的对应小樱牌加入手牌中，并将这张牌从卡组中删去，将一张同名小樱牌加入到卡组中。</t>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>选择1张手牌消耗。如果消耗了1张库洛牌，将这张牌的对应小樱牌加入手牌中，并将这张牌从卡组中删去，将1张同名小樱牌加入到卡组中。</t>
   </si>
   <si>
     <t>BlankSpell</t>
@@ -778,7 +781,7 @@
     <t>空道符</t>
   </si>
   <si>
-    <t>选择一张手牌，从4张“符咒”中选择一张加入手牌。</t>
+    <t>从4张“符咒”中选择1张加入手牌。</t>
   </si>
   <si>
     <t>FengHua</t>
@@ -790,7 +793,7 @@
     <t>消耗，虚无</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“风元素”。</t>
+    <t>对目标造成5点伤害。给与目标2层“风元素”。</t>
   </si>
   <si>
     <t>YanDi</t>
@@ -799,7 +802,7 @@
     <t>炎帝</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“火元素”。</t>
+    <t>对目标造成5点伤害。给与目标2层“火元素”。</t>
   </si>
   <si>
     <t>LeiDi</t>
@@ -808,7 +811,7 @@
     <t>雷帝</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“光元素”。</t>
+    <t>对目标造成5点伤害。给与目标2层“光元素”。</t>
   </si>
   <si>
     <t>ShuiLong</t>
@@ -817,7 +820,7 @@
     <t>水龙</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“水元素”。</t>
+    <t>对目标造成5点伤害。给与目标2层“水元素”。</t>
   </si>
   <si>
     <t>小樱牌</t>
@@ -826,70 +829,70 @@
     <t>唯一</t>
   </si>
   <si>
-    <t>获得2层“地魔法”。从“树”“花”“沙”“迷”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-  </si>
-  <si>
-    <t>获得2层“水魔法”。从“泡”“雨”“冻”“雪”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-  </si>
-  <si>
-    <t>获得2层“火魔法”。从“雷”“矢”“击”“拔”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
-  </si>
-  <si>
-    <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择一张加入手牌，这回合的耗能为0。</t>
+    <t>获得2层“地魔法”。从“树”“花”“沙”“迷”四张小樱牌中选择1张加入手牌，这回合的耗能为0。</t>
+  </si>
+  <si>
+    <t>获得2层“水魔法”。从“泡”“雨”“冻”“雪”四张小樱牌中选择1张加入手牌，这回合的耗能为0。</t>
+  </si>
+  <si>
+    <t>获得2层“火魔法”。从“雷”“矢”“击”“拔”四张小樱牌中选择1张加入手牌，这回合的耗能为0。</t>
+  </si>
+  <si>
+    <t>获得2层“风魔法”。从“云”“岚”“飞”“浮”四张小樱牌中选择1张加入手牌，这回合的耗能为0。</t>
   </si>
   <si>
     <t>阳魔法</t>
   </si>
   <si>
-    <t>获得1层“阳魔法”。给与所有敌人？层“光元素”，</t>
+    <t>获得1层“阳魔法”。给与所有敌人2层“光元素”，</t>
   </si>
   <si>
     <t>阴魔法</t>
   </si>
   <si>
-    <t>获得1层“阴魔法”。给与所有敌人？层“暗元素”。</t>
+    <t>获得1层“阴魔法”。给与所有敌人4层“暗元素”。</t>
   </si>
   <si>
     <t>进攻，削弱</t>
   </si>
   <si>
-    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上有“地元素”时将其消耗，每有？层地元素对其施加层数？倍的“勒脖”和“缠绕”。给与目标？层“地元素”。</t>
+    <t>对目标造成3点伤害，本回合减少对其造成伤害量的力量。目标身上有“地元素”时将其消耗，每有4层地元素对其施加2层“勒脖”和“缠绕”。给与目标3层“地元素”。</t>
   </si>
   <si>
     <t>唯一，消耗</t>
   </si>
   <si>
-    <t>回复所有敌人身上“水元素”层数和？倍的生命，增加所有敌人身上“地元素”层数和？倍的生命上限。给与目标？层“地元素”。</t>
+    <t>回复所有敌人身上“水元素”层数和1/4倍的生命，增加所有敌人身上“地元素”层数和1/10倍的生命上限。给与目标3层“地元素”。</t>
   </si>
   <si>
     <t>地元素，易伤，虚弱，缓慢</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。给与目标？层“易伤”和“虚弱”。给与目标1层“缓慢”。给与目标？层“地元素”。</t>
+    <t>对目标造成5点伤害。给与目标2层“易伤”和“虚弱”。给与目标1层“缓慢”。给与目标4层“地元素”。</t>
   </si>
   <si>
     <t>残影</t>
   </si>
   <si>
-    <t>获得？点格挡。额外获得所有敌人身上“地元素”层数和？倍的格挡。回合结束时，格挡值不会消失。</t>
-  </si>
-  <si>
-    <t>清除目标身上的所有buff。给与目标？层“水元素”。</t>
+    <t>获得18点格挡。额外获得所有敌人身上“地元素”层数和1倍的格挡。回合结束时，格挡值不会消失。</t>
+  </si>
+  <si>
+    <t>清除目标身上的所有buff。给与目标2层“水元素”。</t>
   </si>
   <si>
     <t>水元素，易伤</t>
   </si>
   <si>
-    <t>给与目标？层“水元素”和“易伤”？次。</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害。给与目标？层“冰冻”。造成目标身上“水元素”层数？倍的额外体力流失。给与目标？层“水元素”。</t>
+    <t>给与目标2层“水元素”和“易伤”7次。</t>
+  </si>
+  <si>
+    <t>对目标造成7点伤害。给与目标2层“冰冻”。造成目标身上“水元素”层数1倍的额外体力流失。给与目标3层“水元素”。</t>
   </si>
   <si>
     <t>水元素，风元素，冰冻，虚弱</t>
   </si>
   <si>
-    <t>对所有敌人造成？点伤害。目标身上存在“水元素”时，给与目标？层“冰冻”。目标身上存在“风元素”时，给与目标？层“虚弱”。给与目标？层“水元素”和？层“风元素”。</t>
+    <t>对所有敌人造成12点伤害。目标身上存在“水元素”时，给与目标1层“冰冻”。目标身上存在“风元素”时，给与目标1层“虚弱”。给与目标3层“水元素”和3层“风元素”。</t>
   </si>
   <si>
     <t>进攻强化，印卡</t>
@@ -898,22 +901,22 @@
     <t>获得1层“云层”。从“雨”“雪”“岚”“雷”四张牌中选择一张加入手牌。</t>
   </si>
   <si>
-    <t>对目标造成？点伤害。造成目标身上“地元素”“水元素”“火元素”“风元素”层数之和？倍的额外伤害。给与目标？层“风元素”。</t>
-  </si>
-  <si>
-    <t>给与目标？层“光元素”。移除目标身上所有“暗元素”，移除的“暗元素”每有？层，给与1层“光元素”。</t>
-  </si>
-  <si>
-    <t>对目标造成？伤害。消耗目标身上所有“光元素”，每有？层造成的伤害翻倍。给与目标？层“火元素”。</t>
+    <t>对目标造成8点伤害。造成目标身上“地元素”“水元素”“火元素”“风元素”层数之和1倍的额外伤害。给与目标4层“风元素”。</t>
+  </si>
+  <si>
+    <t>给与目标1层“光元素”。移除目标身上所有“暗元素”，移除的“暗元素”每有2层，给与1层“光元素”。</t>
+  </si>
+  <si>
+    <t>对目标造成12伤害3次。消耗目标身上所有“光元素”，每有1层造成的伤害翻倍。给与目标3层“火元素”。</t>
   </si>
   <si>
     <t>无实体，多层护甲</t>
   </si>
   <si>
-    <t>获得？层无实体。消耗所有敌人身上的“暗元素”，获得消耗层数和？倍的多层护甲。</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害，给与目标？层“暗元素”。如果目标不是boss，则立即消灭。</t>
+    <t>获得1层无实体。消耗所有敌人身上的“暗元素”，获得消耗层数和1.5倍的多层护甲。</t>
+  </si>
+  <si>
+    <t>对目标造成9点伤害，给与目标3层“暗元素”。如果目标不是boss，则立即消灭。</t>
   </si>
   <si>
     <t>去除所有敌人的所有格挡值，移除目标所有“多层护甲”“金属化”“荆棘”“无实体”“缓冲”。</t>
@@ -979,7 +982,7 @@
     <t>力量</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，受到？倍力量加成。当目标的力量层数大于自己时，获得？层力量。</t>
+    <t>对目标造成15点伤害，受到4倍力量加成。当目标的力量层数大于自己时，获得1层力量。</t>
   </si>
   <si>
     <t>防御，防御强化</t>
@@ -988,19 +991,19 @@
     <t>金属化，多层护甲</t>
   </si>
   <si>
-    <t>获得？点格挡，获得？层金属化，？点多层护甲。</t>
-  </si>
-  <si>
-    <t>对目标造成？点伤害？次。每次未被格挡的伤害给与目标？层“火元素”。</t>
-  </si>
-  <si>
-    <t>获得？层缓冲，结束当前回合。</t>
+    <t>获得5点格挡，获得2层金属化，3点多层护甲。</t>
+  </si>
+  <si>
+    <t>对目标造成2点伤害5次。每次未被格挡的伤害给与目标2层“火元素”。</t>
+  </si>
+  <si>
+    <t>获得1层缓冲，结束当前回合。</t>
   </si>
   <si>
     <t>易伤</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，当目标有格挡值时，造成？倍伤害，并给于？层易伤。</t>
+    <t>对目标造成9点伤害，当目标有格挡值时，造成2倍伤害，并给于2层易伤。</t>
   </si>
   <si>
     <t>双生EX</t>
@@ -1009,13 +1012,13 @@
     <t>你所有使用的牌都会被额外打出一次。</t>
   </si>
   <si>
-    <t>获得1层“创造”。随机获得一件遗物，并将这张卡从卡组移除。</t>
+    <t>获得1层“创造”。随机获得1件遗物，并将这张卡从卡组移除。</t>
   </si>
   <si>
     <t>消耗所有手牌中、抽排堆、弃牌堆的“库洛牌”，并将相对应的“小樱牌”加入到抽排堆，抽取原有手牌数量的牌。</t>
   </si>
   <si>
-    <t>随机打出X张攻击牌，消耗区每有？张牌，额外随机打出1张牌。</t>
+    <t>随机打出X张攻击牌，消耗区每有3张牌，额外随机打出1张牌。</t>
   </si>
   <si>
     <t>能量强化</t>
@@ -1027,7 +1030,7 @@
     <t>获得1层“平衡”。</t>
   </si>
   <si>
-    <t>对目标造成？点伤害，给与目标？层“锁定”。</t>
+    <t>对目标造成5点伤害，给与目标3层“锁定”。</t>
   </si>
   <si>
     <r>
@@ -1056,10 +1059,10 @@
     <t>移除自身所有格挡值，恢复相同数量的生命值。</t>
   </si>
   <si>
-    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和？倍的伤害。</t>
-  </si>
-  <si>
-    <t>对所有敌人造成？点伤害，打断所有敌人下？回合的所有动作，无法被人工制品阻挡。</t>
+    <t>消除目标的格挡。消耗目标身上所有“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”，对其造成层数和2倍的伤害。</t>
+  </si>
+  <si>
+    <t>对所有敌人造成12点伤害，打断所有敌人下2回合的所有动作，无法被人工制品阻挡。</t>
   </si>
   <si>
     <t>能量，过牌</t>
@@ -1068,7 +1071,7 @@
     <t>无法被打出，抽到此牌时额外抽1张牌。被消耗时获得1能量，当没有遗物列表中没有“知世的心”时获得之，战斗结束后失去。</t>
   </si>
   <si>
-    <t>选择任意手牌消耗，对随机敌人造成消耗牌数量的？倍次数的？点伤害，消耗的牌每有1张“声”抽1张牌。</t>
+    <t>选择任意手牌消耗，对随机敌人造成消耗牌数量的2倍次数的8点伤害，消耗的牌每有1张“声”抽1张牌。</t>
   </si>
   <si>
     <t>获得1层“波动EX”。</t>
@@ -1080,7 +1083,7 @@
     <t>回溯</t>
   </si>
   <si>
-    <t>选择？张消耗区的牌返回抽排堆，并抽？张牌。给与自己2层“回溯”。</t>
+    <t>选择3张消耗区的牌返回抽排堆，并抽2张牌。给与自己2层“回溯”。</t>
   </si>
   <si>
     <t>给与目标99层“睡眠”。</t>
@@ -1092,7 +1095,7 @@
     <t>心</t>
   </si>
   <si>
-    <t>（特殊事件获得）这张牌不能被打出，抽到时获得？点费用，抽？张牌。主动丢弃时失去？点费用。</t>
+    <t>（特殊事件获得）这张牌不能被打出，抽到时获得2点费用，抽1张牌。主动丢弃时失去1点费用。</t>
   </si>
   <si>
     <t>Hope</t>
@@ -1104,7 +1107,7 @@
     <t>进攻，印卡</t>
   </si>
   <si>
-    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成？点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
+    <t>（特殊战斗事件“无”结束战斗时，手牌中有“心”牌时，失去“心”获得该牌）消耗所有费用，消耗所有手牌、抽排堆和弃牌堆的牌，每消耗1点费用或1张牌，对所有敌人造成12点伤害。将张小樱牌“回”加入手牌，这回合的费用为0。</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1126,8 +1129,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1148,14 +1183,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,101 +1273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,43 +1342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,13 +1390,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,73 +1474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,31 +1492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,26 +1521,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1565,6 +1535,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,25 +1602,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1639,10 +1629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,137 +1641,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,10 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2159,10 +2146,8 @@
   <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <pane xSplit="21960" topLeftCell="Y3" activePane="topLeft"/>
-      <selection activeCell="O9" sqref="O9"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2171,13 +2156,12 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="9.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -3360,12 +3344,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3380,7 +3367,7 @@
         <v>116</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>21</v>
@@ -3389,15 +3376,15 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3421,15 +3408,15 @@
         <v>93</v>
       </c>
       <c r="M37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3453,18 +3440,21 @@
         <v>67</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3479,7 +3469,7 @@
         <v>116</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>51</v>
@@ -3488,15 +3478,15 @@
         <v>93</v>
       </c>
       <c r="M39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3517,21 +3507,21 @@
         <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -3543,7 +3533,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>39</v>
@@ -3553,18 +3543,18 @@
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -3576,7 +3566,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>39</v>
@@ -3589,15 +3579,15 @@
       </c>
       <c r="K42" s="12"/>
       <c r="M42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3609,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>20</v>
@@ -3621,15 +3611,15 @@
         <v>93</v>
       </c>
       <c r="M43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -3641,7 +3631,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>50</v>
@@ -3653,15 +3643,15 @@
         <v>125</v>
       </c>
       <c r="M44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -3673,7 +3663,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>20</v>
@@ -3682,18 +3672,18 @@
         <v>51</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3705,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>39</v>
@@ -3717,18 +3707,18 @@
         <v>129</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -3740,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>50</v>
@@ -3749,18 +3739,18 @@
         <v>21</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -3772,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>39</v>
@@ -3784,15 +3774,15 @@
         <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -3804,7 +3794,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>39</v>
@@ -3819,18 +3809,18 @@
         <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>38</v>
@@ -3839,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>50</v>
@@ -3848,21 +3838,21 @@
         <v>21</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>49</v>
@@ -3871,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>20</v>
@@ -3885,15 +3875,15 @@
       </c>
       <c r="L51" s="12"/>
       <c r="M51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -3905,7 +3895,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>20</v>
@@ -3917,18 +3907,18 @@
         <v>134</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3940,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>20</v>
@@ -3955,15 +3945,15 @@
         <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3975,7 +3965,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>20</v>
@@ -3987,21 +3977,21 @@
         <v>57</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -4013,7 +4003,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>39</v>
@@ -4022,21 +4012,24 @@
         <v>21</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4045,13 +4038,13 @@
         <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>51</v>
@@ -4063,18 +4056,21 @@
         <v>93</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -4083,27 +4079,27 @@
         <v>38</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -4112,30 +4108,30 @@
         <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -4144,10 +4140,10 @@
         <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>50</v>
@@ -4162,15 +4158,15 @@
         <v>93</v>
       </c>
       <c r="M59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -4179,33 +4175,33 @@
         <v>49</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -4214,33 +4210,33 @@
         <v>49</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -4249,33 +4245,33 @@
         <v>49</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -4284,25 +4280,25 @@
         <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="2:13">
@@ -4319,7 +4315,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>19</v>
@@ -4331,14 +4327,14 @@
         <v>21</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -4355,7 +4351,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>19</v>
@@ -4367,14 +4363,14 @@
         <v>21</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -4391,7 +4387,7 @@
         <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>19</v>
@@ -4403,14 +4399,14 @@
         <v>21</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -4427,7 +4423,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>19</v>
@@ -4439,14 +4435,14 @@
         <v>21</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -4463,7 +4459,7 @@
         <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>19</v>
@@ -4475,14 +4471,14 @@
         <v>40</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -4499,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>19</v>
@@ -4511,14 +4507,14 @@
         <v>40</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4536,7 +4532,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>19</v>
@@ -4548,16 +4544,16 @@
         <v>51</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4575,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>19</v>
@@ -4587,16 +4583,16 @@
         <v>40</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -4613,7 +4609,7 @@
         <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>19</v>
@@ -4625,16 +4621,16 @@
         <v>51</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -4651,7 +4647,7 @@
         <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>19</v>
@@ -4663,16 +4659,16 @@
         <v>21</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -4689,7 +4685,7 @@
         <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>19</v>
@@ -4701,10 +4697,10 @@
         <v>51</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4722,7 +4718,7 @@
         <v>38</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>19</v>
@@ -4734,16 +4730,16 @@
         <v>51</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M75" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4761,7 +4757,7 @@
         <v>49</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>19</v>
@@ -4773,7 +4769,7 @@
         <v>51</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>79</v>
@@ -4782,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="M76" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4800,7 +4796,7 @@
         <v>49</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>19</v>
@@ -4812,16 +4808,16 @@
         <v>40</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -4838,7 +4834,7 @@
         <v>38</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>19</v>
@@ -4850,16 +4846,16 @@
         <v>21</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4877,7 +4873,7 @@
         <v>49</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>19</v>
@@ -4889,7 +4885,7 @@
         <v>51</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>93</v>
@@ -4898,7 +4894,7 @@
         <v>94</v>
       </c>
       <c r="M79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -4915,7 +4911,7 @@
         <v>38</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>19</v>
@@ -4927,13 +4923,13 @@
         <v>51</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4951,7 +4947,7 @@
         <v>49</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>19</v>
@@ -4963,7 +4959,7 @@
         <v>51</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>93</v>
@@ -4972,7 +4968,7 @@
         <v>101</v>
       </c>
       <c r="M81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -4989,7 +4985,7 @@
         <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>19</v>
@@ -5001,16 +4997,16 @@
         <v>21</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K82" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -5028,7 +5024,7 @@
         <v>49</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>19</v>
@@ -5040,7 +5036,7 @@
         <v>51</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>93</v>
@@ -5049,7 +5045,7 @@
         <v>45</v>
       </c>
       <c r="M83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="2:13">
@@ -5066,7 +5062,7 @@
         <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>19</v>
@@ -5078,13 +5074,13 @@
         <v>40</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5096,13 +5092,13 @@
         <v>115</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>116</v>
@@ -5114,7 +5110,7 @@
         <v>117</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>93</v>
@@ -5123,7 +5119,7 @@
         <v>101</v>
       </c>
       <c r="M85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="2:13">
@@ -5140,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>116</v>
@@ -5152,16 +5148,16 @@
         <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M86" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="2:13">
@@ -5178,7 +5174,7 @@
         <v>38</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>116</v>
@@ -5190,13 +5186,13 @@
         <v>21</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M87" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="2:13">
@@ -5213,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>116</v>
@@ -5225,16 +5221,16 @@
         <v>21</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="2:13">
@@ -5251,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>116</v>
@@ -5263,16 +5259,16 @@
         <v>21</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="2:13">
@@ -5289,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>116</v>
@@ -5301,16 +5297,16 @@
         <v>21</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>139</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="2:13">
@@ -5327,7 +5323,7 @@
         <v>17</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>116</v>
@@ -5339,16 +5335,16 @@
         <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="2:13">
@@ -5365,7 +5361,7 @@
         <v>38</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>116</v>
@@ -5377,10 +5373,10 @@
         <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="2:13">
@@ -5397,7 +5393,7 @@
         <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>116</v>
@@ -5409,16 +5405,16 @@
         <v>21</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>139</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M93" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="2:13">
@@ -5435,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>116</v>
@@ -5447,13 +5443,13 @@
         <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>155</v>
       </c>
       <c r="M94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="2:13">
@@ -5470,7 +5466,7 @@
         <v>38</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>116</v>
@@ -5482,13 +5478,13 @@
         <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>159</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5506,7 +5502,7 @@
         <v>49</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>116</v>
@@ -5518,24 +5514,24 @@
         <v>51</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
@@ -5544,7 +5540,7 @@
         <v>38</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>116</v>
@@ -5556,25 +5552,25 @@
         <v>21</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
@@ -5583,7 +5579,7 @@
         <v>49</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>116</v>
@@ -5595,21 +5591,21 @@
         <v>51</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -5618,7 +5614,7 @@
         <v>38</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>116</v>
@@ -5630,25 +5626,25 @@
         <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -5657,7 +5653,7 @@
         <v>49</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>116</v>
@@ -5669,24 +5665,24 @@
         <v>51</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D101" s="2">
         <v>4</v>
@@ -5695,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>116</v>
@@ -5707,24 +5703,24 @@
         <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
@@ -5733,10 +5729,10 @@
         <v>17</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>39</v>
@@ -5745,21 +5741,21 @@
         <v>21</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
@@ -5768,10 +5764,10 @@
         <v>38</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>39</v>
@@ -5780,34 +5776,34 @@
         <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M103" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>39</v>
@@ -5816,21 +5812,21 @@
         <v>51</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M104" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -5839,10 +5835,10 @@
         <v>38</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>39</v>
@@ -5851,25 +5847,25 @@
         <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
@@ -5878,10 +5874,10 @@
         <v>49</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>39</v>
@@ -5890,24 +5886,24 @@
         <v>51</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K106" s="12" t="s">
         <v>93</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
@@ -5916,10 +5912,10 @@
         <v>17</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>39</v>
@@ -5928,24 +5924,24 @@
         <v>21</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K107" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L107" s="16" t="s">
-        <v>337</v>
+      <c r="L107" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -5954,10 +5950,10 @@
         <v>38</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>39</v>
@@ -5966,22 +5962,22 @@
         <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
@@ -5990,10 +5986,10 @@
         <v>49</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>39</v>
@@ -6002,22 +5998,22 @@
         <v>51</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D110" s="2">
         <v>3</v>
@@ -6026,10 +6022,10 @@
         <v>49</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>39</v>
@@ -6038,33 +6034,33 @@
         <v>51</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>79</v>
       </c>
       <c r="M110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>39</v>
@@ -6073,22 +6069,22 @@
         <v>21</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
@@ -6097,10 +6093,10 @@
         <v>49</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>39</v>
@@ -6109,22 +6105,22 @@
         <v>21</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>93</v>
       </c>
       <c r="L112" s="12"/>
       <c r="M112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D113" s="2">
         <v>2</v>
@@ -6133,10 +6129,10 @@
         <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>39</v>
@@ -6145,24 +6141,24 @@
         <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
@@ -6171,10 +6167,10 @@
         <v>38</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>39</v>
@@ -6183,24 +6179,24 @@
         <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K114" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="L114" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="L114" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="M114" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="2:13">
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D115" s="2">
         <v>2</v>
@@ -6209,10 +6205,10 @@
         <v>38</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>39</v>
@@ -6221,36 +6217,36 @@
         <v>51</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M115" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>39</v>
@@ -6259,33 +6255,33 @@
         <v>21</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M116" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>39</v>
@@ -6294,17 +6290,17 @@
         <v>21</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:K117"/>
+  <autoFilter ref="C2:H117"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\KinomotoSakuraMod\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DFE74F-D988-4DC1-B6AD-586235A6FE61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17115" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17120" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="358">
   <si>
     <t>$HEAD</t>
   </si>
@@ -1113,14 +1119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,157 +1129,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1312,7 +1175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,13 +1187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,182 +1203,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1523,251 +1212,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1821,66 +1268,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF99CC"/>
+      <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2138,36 +1541,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +1622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2252,7 +1655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -2318,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +1754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2384,7 +1787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -2417,7 +1820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -2452,7 +1855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -2490,7 +1893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -2525,7 +1928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -2557,7 +1960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -2589,7 +1992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2621,7 +2024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2659,7 +2062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -2694,7 +2097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -2729,7 +2132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -2764,7 +2167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>96</v>
       </c>
@@ -2796,7 +2199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2831,7 +2234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2866,7 +2269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -2901,7 +2304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -2936,7 +2339,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>114</v>
       </c>
@@ -2968,7 +2371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -3003,7 +2406,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>123</v>
       </c>
@@ -3035,7 +2438,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>127</v>
       </c>
@@ -3070,7 +2473,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
@@ -3105,7 +2508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -3140,7 +2543,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>142</v>
       </c>
@@ -3175,7 +2578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>146</v>
       </c>
@@ -3210,7 +2613,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>149</v>
       </c>
@@ -3245,7 +2648,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -3280,7 +2683,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>157</v>
       </c>
@@ -3312,7 +2715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>161</v>
       </c>
@@ -3344,7 +2747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>164</v>
       </c>
@@ -3379,7 +2782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -3411,7 +2814,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>172</v>
       </c>
@@ -3446,7 +2849,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -3481,7 +2884,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>179</v>
       </c>
@@ -3516,7 +2919,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>184</v>
       </c>
@@ -3549,7 +2952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>189</v>
       </c>
@@ -3582,7 +2985,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>192</v>
       </c>
@@ -3614,7 +3017,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>195</v>
       </c>
@@ -3646,7 +3049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>198</v>
       </c>
@@ -3678,7 +3081,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>202</v>
       </c>
@@ -3713,7 +3116,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>206</v>
       </c>
@@ -3745,7 +3148,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>210</v>
       </c>
@@ -3777,7 +3180,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>213</v>
       </c>
@@ -3812,7 +3215,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>216</v>
       </c>
@@ -3844,7 +3247,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>220</v>
       </c>
@@ -3878,7 +3281,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>224</v>
       </c>
@@ -3913,7 +3316,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>228</v>
       </c>
@@ -3948,7 +3351,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>231</v>
       </c>
@@ -3986,7 +3389,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>236</v>
       </c>
@@ -4021,7 +3424,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -4062,7 +3465,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4094,7 +3497,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>247</v>
       </c>
@@ -4126,7 +3529,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>252</v>
       </c>
@@ -4161,7 +3564,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>255</v>
       </c>
@@ -4196,7 +3599,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>259</v>
       </c>
@@ -4231,7 +3634,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>262</v>
       </c>
@@ -4266,7 +3669,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>265</v>
       </c>
@@ -4301,7 +3704,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -4337,7 +3740,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -4373,7 +3776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>28</v>
       </c>
@@ -4409,7 +3812,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -4445,7 +3848,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>36</v>
       </c>
@@ -4481,7 +3884,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>43</v>
       </c>
@@ -4517,7 +3920,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>47</v>
@@ -4556,7 +3959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>55</v>
@@ -4595,7 +3998,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -4633,7 +4036,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>65</v>
       </c>
@@ -4671,7 +4074,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>69</v>
       </c>
@@ -4703,7 +4106,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>73</v>
@@ -4742,7 +4145,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>77</v>
@@ -4781,7 +4184,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>82</v>
@@ -4820,7 +4223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -4858,7 +4261,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>91</v>
@@ -4897,7 +4300,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -4932,7 +4335,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>99</v>
@@ -4971,7 +4374,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>103</v>
       </c>
@@ -5009,7 +4412,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>107</v>
@@ -5048,7 +4451,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>110</v>
       </c>
@@ -5083,7 +4486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>114</v>
@@ -5122,7 +4525,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>119</v>
       </c>
@@ -5160,7 +4563,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -5195,7 +4598,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>127</v>
       </c>
@@ -5233,7 +4636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>132</v>
       </c>
@@ -5271,7 +4674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>137</v>
       </c>
@@ -5309,7 +4712,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>142</v>
       </c>
@@ -5347,7 +4750,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>146</v>
       </c>
@@ -5379,7 +4782,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>149</v>
       </c>
@@ -5417,7 +4820,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>153</v>
       </c>
@@ -5452,7 +4855,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -5487,7 +4890,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
         <v>161</v>
@@ -5526,7 +4929,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>165</v>
       </c>
@@ -5564,7 +4967,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
         <v>169</v>
@@ -5600,7 +5003,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>172</v>
       </c>
@@ -5638,7 +5041,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
         <v>176</v>
@@ -5677,7 +5080,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>179</v>
       </c>
@@ -5715,7 +5118,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>184</v>
       </c>
@@ -5750,7 +5153,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>189</v>
       </c>
@@ -5785,7 +5188,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>192</v>
@@ -5821,7 +5224,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>195</v>
       </c>
@@ -5859,7 +5262,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>198</v>
@@ -5898,7 +5301,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>202</v>
       </c>
@@ -5936,7 +5339,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>206</v>
       </c>
@@ -5971,7 +5374,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>210</v>
@@ -6007,7 +5410,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>213</v>
@@ -6043,7 +5446,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>216</v>
       </c>
@@ -6078,7 +5481,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
         <v>220</v>
@@ -6115,7 +5518,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>224</v>
       </c>
@@ -6153,7 +5556,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>228</v>
       </c>
@@ -6191,7 +5594,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>231</v>
       </c>
@@ -6229,7 +5632,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>351</v>
       </c>
@@ -6264,7 +5667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>354</v>
       </c>
@@ -6300,9 +5703,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H117"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <headerFooter/>
+  <autoFilter ref="C2:H117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\KinomotoSakuraMod\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DFE74F-D988-4DC1-B6AD-586235A6FE61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17120" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
   <si>
     <t>$HEAD</t>
   </si>
@@ -628,7 +622,7 @@
     <t>锁定</t>
   </si>
   <si>
-    <t>对目标造成3点伤害，给与目标1层“锁定”。</t>
+    <t>给与目标1层“锁定”。</t>
   </si>
   <si>
     <t>Loop</t>
@@ -889,7 +883,7 @@
     <t>水元素，易伤</t>
   </si>
   <si>
-    <t>给与目标2层“水元素”和“易伤”7次。</t>
+    <t>给与目标2层“水元素”7次，并给于4层“易伤”。</t>
   </si>
   <si>
     <t>对目标造成7点伤害。给与目标2层“冰冻”。造成目标身上“水元素”层数1倍的额外体力流失。给与目标3层“水元素”。</t>
@@ -1036,7 +1030,7 @@
     <t>获得1层“平衡”。</t>
   </si>
   <si>
-    <t>对目标造成5点伤害，给与目标3层“锁定”。</t>
+    <t>给与目标3层“锁定”。</t>
   </si>
   <si>
     <r>
@@ -1119,8 +1113,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,17 +1132,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,7 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,8 +1340,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1212,9 +1529,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,22 +1827,66 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF99CC"/>
+      <color rgb="00FF99CC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1541,36 +2144,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36666666666667" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.36666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.45" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.9083333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.45" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.45" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +2291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1721,7 +2324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -1754,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +2390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1820,7 +2423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -1855,7 +2458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1893,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -1928,7 +2531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -1960,7 +2563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -1992,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2024,7 +2627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2062,7 +2665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -2097,7 +2700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -2132,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -2167,7 +2770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>96</v>
       </c>
@@ -2199,7 +2802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2234,7 +2837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2269,7 +2872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -2304,7 +2907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -2339,7 +2942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>114</v>
       </c>
@@ -2371,7 +2974,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -2406,7 +3009,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>123</v>
       </c>
@@ -2438,7 +3041,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>127</v>
       </c>
@@ -2473,7 +3076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>132</v>
       </c>
@@ -2508,7 +3111,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -2543,7 +3146,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>142</v>
       </c>
@@ -2578,7 +3181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>146</v>
       </c>
@@ -2613,7 +3216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>149</v>
       </c>
@@ -2648,7 +3251,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -2683,7 +3286,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>157</v>
       </c>
@@ -2715,7 +3318,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>161</v>
       </c>
@@ -2747,7 +3350,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>164</v>
       </c>
@@ -2782,7 +3385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -2814,7 +3417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>172</v>
       </c>
@@ -2849,7 +3452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -2884,7 +3487,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>179</v>
       </c>
@@ -2919,7 +3522,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>184</v>
       </c>
@@ -2952,7 +3555,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>189</v>
       </c>
@@ -2985,7 +3588,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>192</v>
       </c>
@@ -3017,7 +3620,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>195</v>
       </c>
@@ -3049,7 +3652,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>198</v>
       </c>
@@ -3057,10 +3660,10 @@
         <v>199</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
@@ -3081,7 +3684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>202</v>
       </c>
@@ -3116,7 +3719,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>206</v>
       </c>
@@ -3148,7 +3751,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>210</v>
       </c>
@@ -3180,7 +3783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>213</v>
       </c>
@@ -3215,7 +3818,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>216</v>
       </c>
@@ -3247,7 +3850,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>220</v>
       </c>
@@ -3281,7 +3884,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>224</v>
       </c>
@@ -3316,7 +3919,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>228</v>
       </c>
@@ -3351,7 +3954,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>231</v>
       </c>
@@ -3389,7 +3992,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>236</v>
       </c>
@@ -3424,7 +4027,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3465,7 +4068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -3497,7 +4100,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>247</v>
       </c>
@@ -3529,7 +4132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
         <v>252</v>
       </c>
@@ -3564,7 +4167,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" t="s">
         <v>255</v>
       </c>
@@ -3599,7 +4202,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" t="s">
         <v>259</v>
       </c>
@@ -3634,7 +4237,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" t="s">
         <v>262</v>
       </c>
@@ -3669,7 +4272,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" t="s">
         <v>265</v>
       </c>
@@ -3704,7 +4307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +4343,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -3776,7 +4379,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +4415,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -3848,7 +4451,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13">
       <c r="B68" t="s">
         <v>36</v>
       </c>
@@ -3884,7 +4487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13">
       <c r="B69" t="s">
         <v>43</v>
       </c>
@@ -3920,7 +4523,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>47</v>
@@ -3959,7 +4562,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>55</v>
@@ -3998,7 +4601,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -4036,7 +4639,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13">
       <c r="B73" t="s">
         <v>65</v>
       </c>
@@ -4074,7 +4677,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13">
       <c r="B74" t="s">
         <v>69</v>
       </c>
@@ -4106,7 +4709,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>73</v>
@@ -4145,7 +4748,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>77</v>
@@ -4184,7 +4787,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>82</v>
@@ -4223,7 +4826,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -4261,7 +4864,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>91</v>
@@ -4300,7 +4903,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -4335,7 +4938,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>99</v>
@@ -4374,7 +4977,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
         <v>103</v>
       </c>
@@ -4412,7 +5015,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>107</v>
@@ -4451,7 +5054,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
         <v>110</v>
       </c>
@@ -4486,7 +5089,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>114</v>
@@ -4525,7 +5128,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13">
       <c r="B86" t="s">
         <v>119</v>
       </c>
@@ -4563,7 +5166,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13">
       <c r="B87" t="s">
         <v>123</v>
       </c>
@@ -4598,7 +5201,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13">
       <c r="B88" t="s">
         <v>127</v>
       </c>
@@ -4636,7 +5239,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13">
       <c r="B89" t="s">
         <v>132</v>
       </c>
@@ -4674,7 +5277,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13">
       <c r="B90" t="s">
         <v>137</v>
       </c>
@@ -4712,7 +5315,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13">
       <c r="B91" t="s">
         <v>142</v>
       </c>
@@ -4750,7 +5353,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13">
       <c r="B92" t="s">
         <v>146</v>
       </c>
@@ -4782,7 +5385,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13">
       <c r="B93" t="s">
         <v>149</v>
       </c>
@@ -4820,7 +5423,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13">
       <c r="B94" t="s">
         <v>153</v>
       </c>
@@ -4855,7 +5458,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13">
       <c r="B95" t="s">
         <v>157</v>
       </c>
@@ -4890,7 +5493,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
         <v>161</v>
@@ -4929,7 +5532,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13">
       <c r="B97" t="s">
         <v>165</v>
       </c>
@@ -4967,7 +5570,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
         <v>169</v>
@@ -5003,7 +5606,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13">
       <c r="B99" t="s">
         <v>172</v>
       </c>
@@ -5041,7 +5644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
         <v>176</v>
@@ -5080,7 +5683,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13">
       <c r="B101" t="s">
         <v>179</v>
       </c>
@@ -5118,7 +5721,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13">
       <c r="B102" t="s">
         <v>184</v>
       </c>
@@ -5153,7 +5756,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13">
       <c r="B103" t="s">
         <v>189</v>
       </c>
@@ -5188,7 +5791,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>192</v>
@@ -5224,7 +5827,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13">
       <c r="B105" t="s">
         <v>195</v>
       </c>
@@ -5262,7 +5865,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>198</v>
@@ -5271,10 +5874,10 @@
         <v>199</v>
       </c>
       <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>268</v>
@@ -5301,7 +5904,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13">
       <c r="B107" t="s">
         <v>202</v>
       </c>
@@ -5339,7 +5942,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13">
       <c r="B108" t="s">
         <v>206</v>
       </c>
@@ -5374,7 +5977,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>210</v>
@@ -5410,7 +6013,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>213</v>
@@ -5446,7 +6049,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13">
       <c r="B111" t="s">
         <v>216</v>
       </c>
@@ -5481,7 +6084,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
         <v>220</v>
@@ -5518,7 +6121,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13">
       <c r="B113" t="s">
         <v>224</v>
       </c>
@@ -5556,7 +6159,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13">
       <c r="B114" t="s">
         <v>228</v>
       </c>
@@ -5594,7 +6197,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13">
       <c r="B115" t="s">
         <v>231</v>
       </c>
@@ -5632,7 +6235,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13">
       <c r="B116" t="s">
         <v>351</v>
       </c>
@@ -5667,7 +6270,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
         <v>354</v>
       </c>
@@ -5703,9 +6306,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <autoFilter ref="C2:H117"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1136,14 +1136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1152,7 +1144,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,16 +1227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,28 +1237,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,41 +1259,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1342,25 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,25 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,7 +1450,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,79 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,32 +1527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1571,20 +1545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1592,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1635,145 +1635,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2152,8 +2152,8 @@
   <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,7 @@
     <t>解</t>
   </si>
   <si>
-    <t>消耗1张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成4点伤害。</t>
+    <t>消耗1张库洛牌或小樱牌，视为打出该牌，并对所有敌人造成3点伤害。</t>
   </si>
   <si>
     <t>Turn</t>
@@ -1115,9 +1115,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1137,21 +1137,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,6 +1168,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,46 +1220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,6 +1252,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,7 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,31 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,7 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,7 +1414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,13 +1456,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,55 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,21 +1560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1586,17 +1571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,6 +1601,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,133 +1647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2153,7 +2153,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4038,7 +4038,7 @@
         <v>240</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>49</v>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,6 +733,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>特殊</t>
+  </si>
+  <si>
     <t>获得1层“无”。（特殊战斗事件“无”获胜后，且战斗结束时手牌中没有“心”时，获得该牌）</t>
   </si>
   <si>
@@ -764,9 +767,6 @@
   </si>
   <si>
     <t>转</t>
-  </si>
-  <si>
-    <t>特殊</t>
   </si>
   <si>
     <t>保留</t>
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1143,6 +1143,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1160,21 +1175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,21 +1183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,9 +1205,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,9 +1258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,7 +1267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,13 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1342,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,55 +1474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,103 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,21 +1546,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1575,40 +1560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,6 +1589,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,130 +1650,130 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2152,8 +2152,8 @@
   <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2789,8 +2789,8 @@
       <c r="G19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>50</v>
+      <c r="H19" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>51</v>
@@ -3130,8 +3130,8 @@
       <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>20</v>
+      <c r="H29" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>21</v>
@@ -3165,8 +3165,8 @@
       <c r="G30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>20</v>
+      <c r="H30" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>21</v>
@@ -3270,8 +3270,8 @@
       <c r="G33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>50</v>
+      <c r="H33" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>21</v>
@@ -3305,8 +3305,8 @@
       <c r="G34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>20</v>
+      <c r="H34" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>21</v>
@@ -3337,8 +3337,8 @@
       <c r="G35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>20</v>
+      <c r="H35" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>51</v>
@@ -3607,8 +3607,8 @@
       <c r="G43" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
+      <c r="H43" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>51</v>
@@ -3703,8 +3703,8 @@
       <c r="G46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>39</v>
+      <c r="H46" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -3738,8 +3738,8 @@
       <c r="G47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>50</v>
+      <c r="H47" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -3869,8 +3869,8 @@
       <c r="G51" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>20</v>
+      <c r="H51" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>21</v>
@@ -3903,8 +3903,8 @@
       <c r="G52" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>20</v>
+      <c r="H52" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>21</v>
@@ -4011,8 +4011,8 @@
       <c r="G55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>39</v>
+      <c r="H55" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>21</v>
@@ -4024,7 +4024,7 @@
         <v>237</v>
       </c>
       <c r="M55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4032,10 +4032,10 @@
         <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="9" t="s">
         <v>240</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>186</v>
@@ -4062,10 +4062,10 @@
         <v>93</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4073,10 +4073,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="9" t="s">
         <v>245</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>186</v>
@@ -4097,15 +4097,15 @@
         <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="9" t="s">
         <v>248</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>249</v>
+      <c r="H58" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>21</v>
@@ -4136,7 +4136,7 @@
       <c r="B59" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D59" s="2">
@@ -4146,7 +4146,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>186</v>
@@ -4171,7 +4171,7 @@
       <c r="B60" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>256</v>
       </c>
       <c r="D60" s="2">
@@ -4181,13 +4181,13 @@
         <v>49</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>249</v>
+      <c r="H60" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>51</v>
@@ -4206,7 +4206,7 @@
       <c r="B61" t="s">
         <v>259</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>260</v>
       </c>
       <c r="D61" s="2">
@@ -4216,13 +4216,13 @@
         <v>49</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>249</v>
+      <c r="H61" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>51</v>
@@ -4241,7 +4241,7 @@
       <c r="B62" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D62" s="2">
@@ -4251,13 +4251,13 @@
         <v>49</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>249</v>
+      <c r="H62" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>51</v>
@@ -4276,7 +4276,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D63" s="2">
@@ -4286,13 +4286,13 @@
         <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>249</v>
+      <c r="H63" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>51</v>
@@ -4326,8 +4326,8 @@
       <c r="G64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>39</v>
+      <c r="H64" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>21</v>
@@ -4362,8 +4362,8 @@
       <c r="G65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>39</v>
+      <c r="H65" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>21</v>
@@ -4398,8 +4398,8 @@
       <c r="G66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>39</v>
+      <c r="H66" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>21</v>
@@ -4434,8 +4434,8 @@
       <c r="G67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>39</v>
+      <c r="H67" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>21</v>
@@ -4470,8 +4470,8 @@
       <c r="G68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>39</v>
+      <c r="H68" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>40</v>
@@ -4506,8 +4506,8 @@
       <c r="G69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>39</v>
+      <c r="H69" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>40</v>
@@ -4543,8 +4543,8 @@
       <c r="G70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>39</v>
+      <c r="H70" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>51</v>
@@ -4582,8 +4582,8 @@
       <c r="G71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>39</v>
+      <c r="H71" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>40</v>
@@ -4620,8 +4620,8 @@
       <c r="G72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>39</v>
+      <c r="H72" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>51</v>
@@ -4658,8 +4658,8 @@
       <c r="G73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>39</v>
+      <c r="H73" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>21</v>
@@ -4696,8 +4696,8 @@
       <c r="G74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>39</v>
+      <c r="H74" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>51</v>
@@ -4729,8 +4729,8 @@
       <c r="G75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>39</v>
+      <c r="H75" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>51</v>
@@ -4768,8 +4768,8 @@
       <c r="G76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>39</v>
+      <c r="H76" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>51</v>
@@ -4807,8 +4807,8 @@
       <c r="G77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>39</v>
+      <c r="H77" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>40</v>
@@ -4845,8 +4845,8 @@
       <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>39</v>
+      <c r="H78" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>21</v>
@@ -4884,8 +4884,8 @@
       <c r="G79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>39</v>
+      <c r="H79" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>51</v>
@@ -4922,8 +4922,8 @@
       <c r="G80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>39</v>
+      <c r="H80" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>51</v>
@@ -4958,8 +4958,8 @@
       <c r="G81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>39</v>
+      <c r="H81" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>51</v>
@@ -4996,8 +4996,8 @@
       <c r="G82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>39</v>
+      <c r="H82" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>21</v>
@@ -5035,8 +5035,8 @@
       <c r="G83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>39</v>
+      <c r="H83" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>51</v>
@@ -5073,8 +5073,8 @@
       <c r="G84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>39</v>
+      <c r="H84" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>40</v>
@@ -5109,8 +5109,8 @@
       <c r="G85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>39</v>
+      <c r="H85" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>117</v>
@@ -5147,8 +5147,8 @@
       <c r="G86" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>39</v>
+      <c r="H86" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>21</v>
@@ -5185,8 +5185,8 @@
       <c r="G87" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>39</v>
+      <c r="H87" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>21</v>
@@ -5220,8 +5220,8 @@
       <c r="G88" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>39</v>
+      <c r="H88" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>21</v>
@@ -5258,8 +5258,8 @@
       <c r="G89" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>39</v>
+      <c r="H89" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>21</v>
@@ -5296,8 +5296,8 @@
       <c r="G90" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>39</v>
+      <c r="H90" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>21</v>
@@ -5334,8 +5334,8 @@
       <c r="G91" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>39</v>
+      <c r="H91" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>21</v>
@@ -5372,8 +5372,8 @@
       <c r="G92" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>39</v>
+      <c r="H92" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>21</v>
@@ -5404,8 +5404,8 @@
       <c r="G93" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>39</v>
+      <c r="H93" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>21</v>
@@ -5442,8 +5442,8 @@
       <c r="G94" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>39</v>
+      <c r="H94" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>21</v>
@@ -5477,8 +5477,8 @@
       <c r="G95" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>39</v>
+      <c r="H95" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>21</v>
@@ -5513,8 +5513,8 @@
       <c r="G96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>39</v>
+      <c r="H96" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>51</v>
@@ -5551,8 +5551,8 @@
       <c r="G97" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>39</v>
+      <c r="H97" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>21</v>
@@ -5590,8 +5590,8 @@
       <c r="G98" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>39</v>
+      <c r="H98" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>51</v>
@@ -5625,8 +5625,8 @@
       <c r="G99" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>39</v>
+      <c r="H99" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>21</v>
@@ -5664,8 +5664,8 @@
       <c r="G100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>39</v>
+      <c r="H100" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>51</v>
@@ -5702,8 +5702,8 @@
       <c r="G101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>39</v>
+      <c r="H101" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>21</v>
@@ -5740,8 +5740,8 @@
       <c r="G102" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>39</v>
+      <c r="H102" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>21</v>
@@ -5775,8 +5775,8 @@
       <c r="G103" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>39</v>
+      <c r="H103" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>21</v>
@@ -5811,8 +5811,8 @@
       <c r="G104" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>39</v>
+      <c r="H104" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>51</v>
@@ -5846,8 +5846,8 @@
       <c r="G105" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>39</v>
+      <c r="H105" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>21</v>
@@ -5885,8 +5885,8 @@
       <c r="G106" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>39</v>
+      <c r="H106" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>51</v>
@@ -5923,8 +5923,8 @@
       <c r="G107" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>39</v>
+      <c r="H107" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>21</v>
@@ -5961,8 +5961,8 @@
       <c r="G108" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>39</v>
+      <c r="H108" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>21</v>
@@ -5997,8 +5997,8 @@
       <c r="G109" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>39</v>
+      <c r="H109" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>51</v>
@@ -6033,8 +6033,8 @@
       <c r="G110" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>39</v>
+      <c r="H110" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>51</v>
@@ -6068,8 +6068,8 @@
       <c r="G111" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>39</v>
+      <c r="H111" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>21</v>
@@ -6104,8 +6104,8 @@
       <c r="G112" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>39</v>
+      <c r="H112" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>21</v>
@@ -6140,8 +6140,8 @@
       <c r="G113" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>39</v>
+      <c r="H113" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>21</v>
@@ -6178,8 +6178,8 @@
       <c r="G114" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>39</v>
+      <c r="H114" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>21</v>
@@ -6216,8 +6216,8 @@
       <c r="G115" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>39</v>
+      <c r="H115" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>51</v>
@@ -6254,8 +6254,8 @@
       <c r="G116" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>39</v>
+      <c r="H116" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>21</v>
@@ -6289,8 +6289,8 @@
       <c r="G117" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>39</v>
+      <c r="H117" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>21</v>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,10 @@
     <t>击</t>
   </si>
   <si>
-    <t>对目标造成2点伤害4次。</t>
+    <t>易伤</t>
+  </si>
+  <si>
+    <t>对目标造成3点伤害并给与1层易伤， 2次。</t>
   </si>
   <si>
     <t>Silent</t>
@@ -998,9 +1001,6 @@
   </si>
   <si>
     <t>获得1层缓冲，结束当前回合。</t>
-  </si>
-  <si>
-    <t>易伤</t>
   </si>
   <si>
     <t>对目标造成9点伤害，当目标有格挡值时，造成2倍伤害，并给于2层易伤。</t>
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1130,14 +1130,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,14 +1152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,8 +1174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1184,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,28 +1237,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,22 +1267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,13 +1342,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,91 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,25 +1432,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1486,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,21 +1531,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1556,6 +1541,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,11 +1586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,18 +1614,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,19 +1647,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1668,112 +1668,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2152,8 +2152,8 @@
   <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3413,16 +3413,19 @@
       <c r="K37" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="L37" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="M37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3446,10 +3449,10 @@
         <v>67</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3457,10 +3460,10 @@
         <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3484,15 +3487,15 @@
         <v>93</v>
       </c>
       <c r="M39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3513,21 +3516,21 @@
         <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -3539,7 +3542,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>39</v>
@@ -3549,18 +3552,18 @@
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -3572,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>39</v>
@@ -3585,15 +3588,15 @@
       </c>
       <c r="K42" s="12"/>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3605,7 +3608,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>50</v>
@@ -3617,15 +3620,15 @@
         <v>93</v>
       </c>
       <c r="M43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -3637,7 +3640,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>50</v>
@@ -3649,15 +3652,15 @@
         <v>125</v>
       </c>
       <c r="M44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3669,7 +3672,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>20</v>
@@ -3678,18 +3681,18 @@
         <v>51</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3701,7 +3704,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>20</v>
@@ -3713,18 +3716,18 @@
         <v>129</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>20</v>
@@ -3745,18 +3748,18 @@
         <v>21</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -3768,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>39</v>
@@ -3780,15 +3783,15 @@
         <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -3800,7 +3803,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>39</v>
@@ -3815,18 +3818,18 @@
         <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>38</v>
@@ -3835,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>50</v>
@@ -3844,21 +3847,21 @@
         <v>21</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>49</v>
@@ -3867,7 +3870,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>50</v>
@@ -3881,15 +3884,15 @@
       </c>
       <c r="L51" s="12"/>
       <c r="M51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -3901,7 +3904,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>50</v>
@@ -3913,18 +3916,18 @@
         <v>134</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3936,7 +3939,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>20</v>
@@ -3951,15 +3954,15 @@
         <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3971,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>20</v>
@@ -3983,21 +3986,21 @@
         <v>57</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -4009,22 +4012,22 @@
         <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4032,10 +4035,10 @@
         <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -4044,10 +4047,10 @@
         <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>167</v>
@@ -4062,10 +4065,10 @@
         <v>93</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4073,10 +4076,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -4085,10 +4088,10 @@
         <v>38</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>167</v>
@@ -4097,15 +4100,15 @@
         <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -4114,30 +4117,30 @@
         <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -4146,10 +4149,10 @@
         <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>50</v>
@@ -4164,15 +4167,15 @@
         <v>93</v>
       </c>
       <c r="M59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -4181,33 +4184,33 @@
         <v>49</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -4216,33 +4219,33 @@
         <v>49</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -4251,33 +4254,33 @@
         <v>49</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -4286,25 +4289,25 @@
         <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:13">
@@ -4321,26 +4324,26 @@
         <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -4357,26 +4360,26 @@
         <v>17</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -4393,26 +4396,26 @@
         <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -4429,26 +4432,26 @@
         <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -4465,26 +4468,26 @@
         <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -4501,26 +4504,26 @@
         <v>17</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4538,28 +4541,28 @@
         <v>49</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4577,28 +4580,28 @@
         <v>38</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -4615,28 +4618,28 @@
         <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -4653,28 +4656,28 @@
         <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -4691,22 +4694,22 @@
         <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4724,28 +4727,28 @@
         <v>38</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4763,19 +4766,19 @@
         <v>49</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>79</v>
@@ -4784,7 +4787,7 @@
         <v>80</v>
       </c>
       <c r="M76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4802,28 +4805,28 @@
         <v>49</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -4840,28 +4843,28 @@
         <v>38</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4879,19 +4882,19 @@
         <v>49</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>93</v>
@@ -4900,7 +4903,7 @@
         <v>94</v>
       </c>
       <c r="M79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -4917,25 +4920,25 @@
         <v>38</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4953,19 +4956,19 @@
         <v>49</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>93</v>
@@ -4974,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="M81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -4991,28 +4994,28 @@
         <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K82" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -5030,19 +5033,19 @@
         <v>49</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>93</v>
@@ -5051,7 +5054,7 @@
         <v>45</v>
       </c>
       <c r="M83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="2:13">
@@ -5068,25 +5071,25 @@
         <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5098,25 +5101,25 @@
         <v>115</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>93</v>
@@ -5125,7 +5128,7 @@
         <v>101</v>
       </c>
       <c r="M85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="2:13">
@@ -5142,28 +5145,28 @@
         <v>17</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="2:13">
@@ -5180,25 +5183,25 @@
         <v>38</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M87" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="2:13">
@@ -5215,28 +5218,28 @@
         <v>17</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="2:13">
@@ -5253,28 +5256,28 @@
         <v>17</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="2:13">
@@ -5291,28 +5294,28 @@
         <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>139</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="2:13">
@@ -5329,28 +5332,28 @@
         <v>17</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M91" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="2:13">
@@ -5367,22 +5370,22 @@
         <v>38</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="2:13">
@@ -5399,28 +5402,28 @@
         <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>139</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M93" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="2:13">
@@ -5437,25 +5440,25 @@
         <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>155</v>
       </c>
       <c r="M94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="2:13">
@@ -5472,25 +5475,25 @@
         <v>38</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>159</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5508,28 +5511,28 @@
         <v>49</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="2:13">
@@ -5546,28 +5549,28 @@
         <v>38</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5585,33 +5588,33 @@
         <v>49</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -5620,37 +5623,37 @@
         <v>38</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>67</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -5659,25 +5662,25 @@
         <v>49</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>327</v>
+        <v>171</v>
       </c>
       <c r="M100" t="s">
         <v>328</v>
@@ -5685,10 +5688,10 @@
     </row>
     <row r="101" spans="2:13">
       <c r="B101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D101" s="2">
         <v>4</v>
@@ -5697,22 +5700,22 @@
         <v>17</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L101" s="12" t="s">
         <v>329</v>
@@ -5723,10 +5726,10 @@
     </row>
     <row r="102" spans="2:13">
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
@@ -5735,22 +5738,22 @@
         <v>17</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M102" t="s">
         <v>331</v>
@@ -5758,10 +5761,10 @@
     </row>
     <row r="103" spans="2:13">
       <c r="B103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
@@ -5770,22 +5773,22 @@
         <v>38</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M103" t="s">
         <v>332</v>
@@ -5794,31 +5797,31 @@
     <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>93</v>
@@ -5829,10 +5832,10 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -5841,19 +5844,19 @@
         <v>38</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>334</v>
@@ -5868,10 +5871,10 @@
     <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D106" s="2">
         <v>2</v>
@@ -5880,25 +5883,25 @@
         <v>38</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K106" s="12" t="s">
         <v>93</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M106" t="s">
         <v>337</v>
@@ -5906,10 +5909,10 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
@@ -5918,19 +5921,19 @@
         <v>17</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>125</v>
@@ -5944,10 +5947,10 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -5956,22 +5959,22 @@
         <v>38</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M108" t="s">
         <v>340</v>
@@ -5980,10 +5983,10 @@
     <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
@@ -5992,19 +5995,19 @@
         <v>49</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>93</v>
@@ -6016,10 +6019,10 @@
     <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D110" s="2">
         <v>3</v>
@@ -6028,19 +6031,19 @@
         <v>49</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>79</v>
@@ -6051,31 +6054,31 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>343</v>
@@ -6087,10 +6090,10 @@
     <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
@@ -6099,19 +6102,19 @@
         <v>49</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>93</v>
@@ -6123,10 +6126,10 @@
     </row>
     <row r="113" spans="2:13">
       <c r="B113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D113" s="2">
         <v>2</v>
@@ -6135,25 +6138,25 @@
         <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>134</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M113" t="s">
         <v>346</v>
@@ -6161,10 +6164,10 @@
     </row>
     <row r="114" spans="2:13">
       <c r="B114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
@@ -6173,19 +6176,19 @@
         <v>38</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>347</v>
@@ -6199,10 +6202,10 @@
     </row>
     <row r="115" spans="2:13">
       <c r="B115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D115" s="2">
         <v>2</v>
@@ -6211,25 +6214,25 @@
         <v>38</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>51</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M115" t="s">
         <v>350</v>
@@ -6243,25 +6246,25 @@
         <v>352</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>343</v>
@@ -6278,25 +6281,25 @@
         <v>355</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>356</v>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -454,7 +454,7 @@
     <t>飞行</t>
   </si>
   <si>
-    <t>获得8点格挡，获得3层飞行。</t>
+    <t>获得8点格挡，获得2层飞行。</t>
   </si>
   <si>
     <t>Jump</t>
@@ -1117,8 +1117,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1129,8 +1129,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,23 +1183,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,8 +1213,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,14 +1229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,8 +1249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,47 +1266,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,13 +1342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,25 +1372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,37 +1402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,13 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,37 +1498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,28 +1530,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,21 +1559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,17 +1580,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1622,8 +1592,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,133 +1647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2149,11 +2149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" hidden="1" spans="2:13">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" hidden="1" spans="2:13">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" hidden="1" spans="2:13">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" hidden="1" spans="2:13">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" hidden="1" spans="2:13">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" hidden="1" spans="2:13">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" hidden="1" spans="2:13">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" hidden="1" spans="2:13">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" hidden="1" spans="2:13">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" hidden="1" spans="2:13">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" hidden="1" spans="2:13">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" hidden="1" spans="2:13">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" hidden="1" spans="2:13">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" hidden="1" spans="2:13">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" hidden="1" spans="2:13">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" hidden="1" spans="2:13">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" hidden="1" spans="2:13">
       <c r="B19" t="s">
         <v>96</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" hidden="1" spans="2:13">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" hidden="1" spans="2:13">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" hidden="1" spans="2:13">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" hidden="1" spans="2:13">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" hidden="1" spans="2:13">
       <c r="B41" t="s">
         <v>185</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" hidden="1" spans="2:13">
       <c r="B42" t="s">
         <v>190</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" hidden="1" spans="2:13">
       <c r="B43" t="s">
         <v>193</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" hidden="1" spans="2:13">
       <c r="B44" t="s">
         <v>196</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" hidden="1" spans="2:13">
       <c r="B45" t="s">
         <v>199</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" hidden="1" spans="2:13">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" hidden="1" spans="2:13">
       <c r="B47" t="s">
         <v>207</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" hidden="1" spans="2:13">
       <c r="B48" t="s">
         <v>211</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" hidden="1" spans="2:13">
       <c r="B49" t="s">
         <v>214</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" hidden="1" spans="2:13">
       <c r="B50" t="s">
         <v>217</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" hidden="1" spans="2:13">
       <c r="B51" t="s">
         <v>221</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" hidden="1" spans="2:13">
       <c r="B52" t="s">
         <v>225</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" hidden="1" spans="2:13">
       <c r="B53" t="s">
         <v>229</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" hidden="1" spans="2:13">
       <c r="B54" t="s">
         <v>232</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" hidden="1" spans="2:13">
       <c r="B55" t="s">
         <v>237</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" hidden="1" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" hidden="1" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" hidden="1" spans="2:13">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" hidden="1" spans="2:13">
       <c r="B59" t="s">
         <v>253</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" hidden="1" spans="2:13">
       <c r="B60" t="s">
         <v>256</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" hidden="1" spans="2:13">
       <c r="B61" t="s">
         <v>260</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" hidden="1" spans="2:13">
       <c r="B62" t="s">
         <v>263</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" hidden="1" spans="2:13">
       <c r="B63" t="s">
         <v>266</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" hidden="1" spans="2:13">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" hidden="1" spans="2:13">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" hidden="1" spans="2:13">
       <c r="B66" t="s">
         <v>28</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" hidden="1" spans="2:13">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" hidden="1" spans="2:13">
       <c r="B68" t="s">
         <v>36</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" hidden="1" spans="2:13">
       <c r="B69" t="s">
         <v>43</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" hidden="1" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>47</v>
@@ -4565,7 +4565,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" hidden="1" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>55</v>
@@ -4604,7 +4604,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" hidden="1" spans="2:13">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" hidden="1" spans="2:13">
       <c r="B73" t="s">
         <v>65</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" hidden="1" spans="2:13">
       <c r="B74" t="s">
         <v>69</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" hidden="1" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>73</v>
@@ -4751,7 +4751,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" hidden="1" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>77</v>
@@ -4790,7 +4790,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" hidden="1" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>82</v>
@@ -4829,7 +4829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" hidden="1" spans="2:13">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" hidden="1" spans="1:13">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>91</v>
@@ -4906,7 +4906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" hidden="1" spans="2:13">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" hidden="1" spans="1:13">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>99</v>
@@ -4980,7 +4980,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" hidden="1" spans="2:13">
       <c r="B82" t="s">
         <v>103</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" hidden="1" spans="1:13">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>107</v>
@@ -5057,7 +5057,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" hidden="1" spans="2:13">
       <c r="B84" t="s">
         <v>110</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" hidden="1" spans="2:13">
       <c r="B102" t="s">
         <v>185</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" hidden="1" spans="2:13">
       <c r="B103" t="s">
         <v>190</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" hidden="1" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>193</v>
@@ -5830,7 +5830,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" hidden="1" spans="2:13">
       <c r="B105" t="s">
         <v>196</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" hidden="1" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>199</v>
@@ -5907,7 +5907,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" hidden="1" spans="2:13">
       <c r="B107" t="s">
         <v>203</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" hidden="1" spans="2:13">
       <c r="B108" t="s">
         <v>207</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" hidden="1" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>211</v>
@@ -6016,7 +6016,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" hidden="1" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>214</v>
@@ -6052,7 +6052,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" hidden="1" spans="2:13">
       <c r="B111" t="s">
         <v>217</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" hidden="1" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
         <v>221</v>
@@ -6124,7 +6124,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" hidden="1" spans="2:13">
       <c r="B113" t="s">
         <v>225</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" hidden="1" spans="2:13">
       <c r="B114" t="s">
         <v>229</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" hidden="1" spans="2:13">
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" hidden="1" spans="2:13">
       <c r="B116" t="s">
         <v>351</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" hidden="1" spans="2:13">
       <c r="B117" s="12" t="s">
         <v>354</v>
       </c>
@@ -6309,7 +6309,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H117"/>
+  <autoFilter ref="C2:H117">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="物理"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
     <t>过牌</t>
   </si>
   <si>
-    <t>丢弃最多2张手牌，并从卡组中选择相同数量的牌加入手牌。</t>
+    <t>丢弃最多2张手牌，并抽相同数量的牌。</t>
   </si>
   <si>
     <t>Dash</t>
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1129,9 +1129,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,84 +1228,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,8 +1243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,23 +1260,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,43 +1342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1366,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,19 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,31 +1456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,19 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,31 +1504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,17 +1533,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,17 +1584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1592,8 +1607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,21 +1627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,133 +1647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2153,7 +2153,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/Cards.xlsx
+++ b/Excel/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>力</t>
   </si>
   <si>
-    <t>对目标造成12点伤害，受到3倍力量加成。</t>
+    <t>对目标造成14点伤害，受到3倍力量加成。</t>
   </si>
   <si>
     <t>Start</t>
@@ -1115,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1130,7 +1130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,8 +1143,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,6 +1180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1164,9 +1195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,14 +1218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1206,24 +1228,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1237,7 +1244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,7 +1259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,14 +1267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,7 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,19 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,31 +1480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,37 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,6 +1539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1550,21 +1559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,22 +1578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,6 +1616,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1635,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,133 +1647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2149,11 +2149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="2:13">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="2:13">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="2:13">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="2:13">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="2:13">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="2:13">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="2:13">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="2:13">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="2:13">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="2:13">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="2:13">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="2:13">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="2:13">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="2:13">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="2:13">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:13">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="2:13">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>96</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="2:13">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="2:13">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="2:13">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="2:13">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -3130,8 +3130,8 @@
       <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>50</v>
+      <c r="H29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>21</v>
@@ -3165,8 +3165,8 @@
       <c r="G30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>50</v>
+      <c r="H30" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>21</v>
@@ -3525,7 +3525,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="2:13">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>185</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="2:13">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>190</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="2:13">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>193</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="2:13">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>196</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="2:13">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>199</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="2:13">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="2:13">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>207</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="2:13">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>211</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="2:13">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>214</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="2:13">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>217</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="2:13">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>221</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="2:13">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>225</v>
       </c>
@@ -3906,8 +3906,8 @@
       <c r="G52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>50</v>
+      <c r="H52" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>21</v>
@@ -3922,7 +3922,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="2:13">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>229</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="2:13">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>232</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="2:13">
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>237</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:13">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:13">
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="2:13">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>249</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="2:13">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
         <v>253</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="2:13">
+    <row r="60" spans="2:13">
       <c r="B60" t="s">
         <v>256</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="2:13">
+    <row r="61" spans="2:13">
       <c r="B61" t="s">
         <v>260</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="2:13">
+    <row r="62" spans="2:13">
       <c r="B62" t="s">
         <v>263</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="2:13">
+    <row r="63" spans="2:13">
       <c r="B63" t="s">
         <v>266</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="2:13">
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="2:13">
+    <row r="65" spans="2:13">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="2:13">
+    <row r="66" spans="2:13">
       <c r="B66" t="s">
         <v>28</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="2:13">
+    <row r="67" spans="2:13">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="2:13">
+    <row r="68" spans="2:13">
       <c r="B68" t="s">
         <v>36</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="2:13">
+    <row r="69" spans="2:13">
       <c r="B69" t="s">
         <v>43</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:13">
+    <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>47</v>
@@ -4565,7 +4565,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:13">
+    <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>55</v>
@@ -4604,7 +4604,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="2:13">
+    <row r="72" spans="2:13">
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="2:13">
+    <row r="73" spans="2:13">
       <c r="B73" t="s">
         <v>65</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="2:13">
+    <row r="74" spans="2:13">
       <c r="B74" t="s">
         <v>69</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:13">
+    <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>73</v>
@@ -4751,7 +4751,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:13">
+    <row r="76" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>77</v>
@@ -4790,7 +4790,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:13">
+    <row r="77" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>82</v>
@@ -4829,7 +4829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="2:13">
+    <row r="78" spans="2:13">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:13">
+    <row r="79" spans="1:13">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>91</v>
@@ -4906,7 +4906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="2:13">
+    <row r="80" spans="2:13">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:13">
+    <row r="81" spans="1:13">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>99</v>
@@ -4980,7 +4980,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="2:13">
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
         <v>103</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:13">
+    <row r="83" spans="1:13">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>107</v>
@@ -5057,7 +5057,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="2:13">
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
         <v>110</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="2:13">
+    <row r="102" spans="2:13">
       <c r="B102" t="s">
         <v>185</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="2:13">
+    <row r="103" spans="2:13">
       <c r="B103" t="s">
         <v>190</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:13">
+    <row r="104" spans="1:13">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>193</v>
@@ -5830,7 +5830,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="2:13">
+    <row r="105" spans="2:13">
       <c r="B105" t="s">
         <v>196</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:13">
+    <row r="106" spans="1:13">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>199</v>
@@ -5907,7 +5907,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="2:13">
+    <row r="107" spans="2:13">
       <c r="B107" t="s">
         <v>203</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="2:13">
+    <row r="108" spans="2:13">
       <c r="B108" t="s">
         <v>207</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:13">
+    <row r="109" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>211</v>
@@ -6016,7 +6016,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:13">
+    <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>214</v>
@@ -6052,7 +6052,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="2:13">
+    <row r="111" spans="2:13">
       <c r="B111" t="s">
         <v>217</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:13">
+    <row r="112" spans="1:13">
       <c r="A112" s="2"/>
       <c r="B112" t="s">
         <v>221</v>
@@ -6124,7 +6124,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="2:13">
+    <row r="113" spans="2:13">
       <c r="B113" t="s">
         <v>225</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="2:13">
+    <row r="114" spans="2:13">
       <c r="B114" t="s">
         <v>229</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="2:13">
+    <row r="115" spans="2:13">
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="2:13">
+    <row r="116" spans="2:13">
       <c r="B116" t="s">
         <v>351</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="2:13">
+    <row r="117" spans="2:13">
       <c r="B117" s="12" t="s">
         <v>354</v>
       </c>
@@ -6309,13 +6309,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H117">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="物理"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:H117"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
